--- a/data/output/security_loan_order/3031_m_hait_1905_secloan_order.xlsx
+++ b/data/output/security_loan_order/3031_m_hait_1905_secloan_order.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1023" uniqueCount="351">
   <si>
     <t>证券代码</t>
   </si>
@@ -43,7 +43,7 @@
     <t>特殊备注</t>
   </si>
   <si>
-    <t>000100</t>
+    <t>000009</t>
   </si>
   <si>
     <t>000151</t>
@@ -52,21 +52,24 @@
     <t>000159</t>
   </si>
   <si>
+    <t>000426</t>
+  </si>
+  <si>
     <t>000488</t>
   </si>
   <si>
-    <t>000503</t>
-  </si>
-  <si>
     <t>000566</t>
   </si>
   <si>
+    <t>000655</t>
+  </si>
+  <si>
+    <t>000690</t>
+  </si>
+  <si>
     <t>000723</t>
   </si>
   <si>
-    <t>000725</t>
-  </si>
-  <si>
     <t>000762</t>
   </si>
   <si>
@@ -76,12 +79,15 @@
     <t>000807</t>
   </si>
   <si>
-    <t>000830</t>
-  </si>
-  <si>
     <t>000851</t>
   </si>
   <si>
+    <t>000878</t>
+  </si>
+  <si>
+    <t>000889</t>
+  </si>
+  <si>
     <t>000901</t>
   </si>
   <si>
@@ -103,18 +109,21 @@
     <t>001896</t>
   </si>
   <si>
-    <t>002044</t>
-  </si>
-  <si>
     <t>002054</t>
   </si>
   <si>
     <t>002055</t>
   </si>
   <si>
+    <t>002075</t>
+  </si>
+  <si>
     <t>002092</t>
   </si>
   <si>
+    <t>002123</t>
+  </si>
+  <si>
     <t>002127</t>
   </si>
   <si>
@@ -133,54 +142,57 @@
     <t>002189</t>
   </si>
   <si>
+    <t>002221</t>
+  </si>
+  <si>
     <t>002229</t>
   </si>
   <si>
     <t>002234</t>
   </si>
   <si>
+    <t>002274</t>
+  </si>
+  <si>
     <t>002288</t>
   </si>
   <si>
     <t>002291</t>
   </si>
   <si>
+    <t>002292</t>
+  </si>
+  <si>
     <t>002297</t>
   </si>
   <si>
     <t>002313</t>
   </si>
   <si>
-    <t>002340</t>
+    <t>002326</t>
   </si>
   <si>
     <t>002351</t>
   </si>
   <si>
-    <t>002355</t>
-  </si>
-  <si>
     <t>002378</t>
   </si>
   <si>
     <t>002383</t>
   </si>
   <si>
+    <t>002408</t>
+  </si>
+  <si>
     <t>002413</t>
   </si>
   <si>
-    <t>002416</t>
-  </si>
-  <si>
     <t>002425</t>
   </si>
   <si>
     <t>002451</t>
   </si>
   <si>
-    <t>002456</t>
-  </si>
-  <si>
     <t>002577</t>
   </si>
   <si>
@@ -193,6 +205,9 @@
     <t>002647</t>
   </si>
   <si>
+    <t>002750</t>
+  </si>
+  <si>
     <t>002783</t>
   </si>
   <si>
@@ -208,6 +223,9 @@
     <t>300018</t>
   </si>
   <si>
+    <t>300042</t>
+  </si>
+  <si>
     <t>300055</t>
   </si>
   <si>
@@ -238,15 +256,9 @@
     <t>300139</t>
   </si>
   <si>
-    <t>300142</t>
-  </si>
-  <si>
     <t>300147</t>
   </si>
   <si>
-    <t>300180</t>
-  </si>
-  <si>
     <t>300183</t>
   </si>
   <si>
@@ -256,18 +268,12 @@
     <t>300205</t>
   </si>
   <si>
-    <t>300222</t>
-  </si>
-  <si>
     <t>300236</t>
   </si>
   <si>
     <t>300256</t>
   </si>
   <si>
-    <t>300296</t>
-  </si>
-  <si>
     <t>300299</t>
   </si>
   <si>
@@ -280,7 +286,7 @@
     <t>300315</t>
   </si>
   <si>
-    <t>300326</t>
+    <t>300322</t>
   </si>
   <si>
     <t>300328</t>
@@ -298,9 +304,18 @@
     <t>300353</t>
   </si>
   <si>
+    <t>300366</t>
+  </si>
+  <si>
+    <t>300377</t>
+  </si>
+  <si>
     <t>300378</t>
   </si>
   <si>
+    <t>300379</t>
+  </si>
+  <si>
     <t>300414</t>
   </si>
   <si>
@@ -310,16 +325,19 @@
     <t>300471</t>
   </si>
   <si>
+    <t>300493</t>
+  </si>
+  <si>
     <t>300561</t>
   </si>
   <si>
     <t>300576</t>
   </si>
   <si>
-    <t>300595</t>
-  </si>
-  <si>
-    <t>300601</t>
+    <t>300663</t>
+  </si>
+  <si>
+    <t>300748</t>
   </si>
   <si>
     <t>600006</t>
@@ -331,21 +349,18 @@
     <t>600059</t>
   </si>
   <si>
-    <t>600066</t>
-  </si>
-  <si>
     <t>600081</t>
   </si>
   <si>
+    <t>600088</t>
+  </si>
+  <si>
     <t>600107</t>
   </si>
   <si>
     <t>600110</t>
   </si>
   <si>
-    <t>600111</t>
-  </si>
-  <si>
     <t>600129</t>
   </si>
   <si>
@@ -379,33 +394,30 @@
     <t>600237</t>
   </si>
   <si>
+    <t>600268</t>
+  </si>
+  <si>
     <t>600292</t>
   </si>
   <si>
-    <t>600295</t>
-  </si>
-  <si>
     <t>600318</t>
   </si>
   <si>
     <t>600336</t>
   </si>
   <si>
+    <t>600340</t>
+  </si>
+  <si>
     <t>600360</t>
   </si>
   <si>
     <t>600409</t>
   </si>
   <si>
-    <t>600433</t>
-  </si>
-  <si>
     <t>600497</t>
   </si>
   <si>
-    <t>600531</t>
-  </si>
-  <si>
     <t>600532</t>
   </si>
   <si>
@@ -424,6 +436,9 @@
     <t>600616</t>
   </si>
   <si>
+    <t>600640</t>
+  </si>
+  <si>
     <t>600645</t>
   </si>
   <si>
@@ -439,12 +454,6 @@
     <t>600722</t>
   </si>
   <si>
-    <t>600733</t>
-  </si>
-  <si>
-    <t>600740</t>
-  </si>
-  <si>
     <t>600773</t>
   </si>
   <si>
@@ -454,6 +463,9 @@
     <t>600810</t>
   </si>
   <si>
+    <t>600970</t>
+  </si>
+  <si>
     <t>600997</t>
   </si>
   <si>
@@ -481,6 +493,9 @@
     <t>601566</t>
   </si>
   <si>
+    <t>601678</t>
+  </si>
+  <si>
     <t>601717</t>
   </si>
   <si>
@@ -490,9 +505,6 @@
     <t>601908</t>
   </si>
   <si>
-    <t>601919</t>
-  </si>
-  <si>
     <t>603032</t>
   </si>
   <si>
@@ -502,12 +514,21 @@
     <t>603085</t>
   </si>
   <si>
+    <t>603128</t>
+  </si>
+  <si>
     <t>603167</t>
   </si>
   <si>
+    <t>603220</t>
+  </si>
+  <si>
     <t>603377</t>
   </si>
   <si>
+    <t>603399</t>
+  </si>
+  <si>
     <t>603559</t>
   </si>
   <si>
@@ -517,6 +538,9 @@
     <t>603718</t>
   </si>
   <si>
+    <t>603776</t>
+  </si>
+  <si>
     <t>603936</t>
   </si>
   <si>
@@ -526,7 +550,7 @@
     <t>603993</t>
   </si>
   <si>
-    <t>TCL科技</t>
+    <t>中国宝安</t>
   </si>
   <si>
     <t>中成股份</t>
@@ -535,21 +559,24 @@
     <t>国际实业</t>
   </si>
   <si>
+    <t>兴业矿业</t>
+  </si>
+  <si>
     <t>晨鸣纸业</t>
   </si>
   <si>
-    <t>国新健康</t>
-  </si>
-  <si>
     <t>海南海药</t>
   </si>
   <si>
+    <t>金岭矿业</t>
+  </si>
+  <si>
+    <t>宝新能源</t>
+  </si>
+  <si>
     <t>美锦能源</t>
   </si>
   <si>
-    <t>京东方A</t>
-  </si>
-  <si>
     <t>西藏矿业</t>
   </si>
   <si>
@@ -559,12 +586,15 @@
     <t>云铝股份</t>
   </si>
   <si>
-    <t>鲁西化工</t>
-  </si>
-  <si>
     <t>高鸿股份</t>
   </si>
   <si>
+    <t>云南铜业</t>
+  </si>
+  <si>
+    <t>中嘉博创</t>
+  </si>
+  <si>
     <t>航天科技</t>
   </si>
   <si>
@@ -586,18 +616,21 @@
     <t>豫能控股</t>
   </si>
   <si>
-    <t>美年健康</t>
-  </si>
-  <si>
     <t>德美化工</t>
   </si>
   <si>
     <t>得润电子</t>
   </si>
   <si>
+    <t>沙钢股份</t>
+  </si>
+  <si>
     <t>中泰化学</t>
   </si>
   <si>
+    <t>梦网科技</t>
+  </si>
+  <si>
     <t>南极电商</t>
   </si>
   <si>
@@ -616,54 +649,57 @@
     <t>中光学</t>
   </si>
   <si>
+    <t>东华能源</t>
+  </si>
+  <si>
     <t>鸿博股份</t>
   </si>
   <si>
     <t>民和股份</t>
   </si>
   <si>
+    <t>华昌化工</t>
+  </si>
+  <si>
     <t>超华科技</t>
   </si>
   <si>
     <t>星期六</t>
   </si>
   <si>
+    <t>奥飞娱乐</t>
+  </si>
+  <si>
     <t>博云新材</t>
   </si>
   <si>
     <t>日海智能</t>
   </si>
   <si>
-    <t>格林美</t>
+    <t>永太科技</t>
   </si>
   <si>
     <t>漫步者</t>
   </si>
   <si>
-    <t>兴民智通</t>
-  </si>
-  <si>
     <t>章源钨业</t>
   </si>
   <si>
     <t>合众思壮</t>
   </si>
   <si>
+    <t>齐翔腾达</t>
+  </si>
+  <si>
     <t>雷科防务</t>
   </si>
   <si>
-    <t>爱施德</t>
-  </si>
-  <si>
     <t>凯撒文化</t>
   </si>
   <si>
     <t>摩恩电气</t>
   </si>
   <si>
-    <t>欧菲光</t>
-  </si>
-  <si>
     <t>雷柏科技</t>
   </si>
   <si>
@@ -676,6 +712,9 @@
     <t>仁东控股</t>
   </si>
   <si>
+    <t>龙津药业</t>
+  </si>
+  <si>
     <t>凯龙股份</t>
   </si>
   <si>
@@ -691,6 +730,9 @@
     <t>中元股份</t>
   </si>
   <si>
+    <t>朗科科技</t>
+  </si>
+  <si>
     <t>万邦达</t>
   </si>
   <si>
@@ -721,15 +763,9 @@
     <t>晓程科技</t>
   </si>
   <si>
-    <t>沃森生物</t>
-  </si>
-  <si>
     <t>香雪制药</t>
   </si>
   <si>
-    <t>华峰超纤</t>
-  </si>
-  <si>
     <t>东软载波</t>
   </si>
   <si>
@@ -739,18 +775,12 @@
     <t>天喻信息</t>
   </si>
   <si>
-    <t>科大智能</t>
-  </si>
-  <si>
     <t>上海新阳</t>
   </si>
   <si>
     <t>星星科技</t>
   </si>
   <si>
-    <t>利亚德</t>
-  </si>
-  <si>
     <t>富春股份</t>
   </si>
   <si>
@@ -763,7 +793,7 @@
     <t>掌趣科技</t>
   </si>
   <si>
-    <t>凯利泰</t>
+    <t>硕贝德</t>
   </si>
   <si>
     <t>宜安科技</t>
@@ -781,9 +811,18 @@
     <t>东土科技</t>
   </si>
   <si>
+    <t>创意信息</t>
+  </si>
+  <si>
+    <t>赢时胜</t>
+  </si>
+  <si>
     <t>鼎捷软件</t>
   </si>
   <si>
+    <t>东方通</t>
+  </si>
+  <si>
     <t>中光防雷</t>
   </si>
   <si>
@@ -793,16 +832,19 @@
     <t>厚普股份</t>
   </si>
   <si>
+    <t>润欣科技</t>
+  </si>
+  <si>
     <t>汇金科技</t>
   </si>
   <si>
     <t>容大感光</t>
   </si>
   <si>
-    <t>欧普康视</t>
-  </si>
-  <si>
-    <t>康泰生物</t>
+    <t>科蓝软件</t>
+  </si>
+  <si>
+    <t>金力永磁</t>
   </si>
   <si>
     <t>东风汽车</t>
@@ -814,21 +856,18 @@
     <t>古越龙山</t>
   </si>
   <si>
-    <t>宇通客车</t>
-  </si>
-  <si>
     <t>东风科技</t>
   </si>
   <si>
+    <t>中视传媒</t>
+  </si>
+  <si>
     <t>美尔雅</t>
   </si>
   <si>
     <t>诺德股份</t>
   </si>
   <si>
-    <t>北方稀土</t>
-  </si>
-  <si>
     <t>太极集团</t>
   </si>
   <si>
@@ -862,33 +901,30 @@
     <t>铜峰电子</t>
   </si>
   <si>
+    <t>国电南自</t>
+  </si>
+  <si>
     <t>远达环保</t>
   </si>
   <si>
-    <t>鄂尔多斯</t>
-  </si>
-  <si>
     <t>新力金融</t>
   </si>
   <si>
     <t>澳柯玛</t>
   </si>
   <si>
+    <t>华夏幸福</t>
+  </si>
+  <si>
     <t>华微电子</t>
   </si>
   <si>
     <t>三友化工</t>
   </si>
   <si>
-    <t>冠豪高新</t>
-  </si>
-  <si>
     <t>驰宏锌锗</t>
   </si>
   <si>
-    <t>豫光金铅</t>
-  </si>
-  <si>
     <t>未来股份</t>
   </si>
   <si>
@@ -907,6 +943,9 @@
     <t>金枫酒业</t>
   </si>
   <si>
+    <t>号百控股</t>
+  </si>
+  <si>
     <t>中源协和</t>
   </si>
   <si>
@@ -922,12 +961,6 @@
     <t>金牛化工</t>
   </si>
   <si>
-    <t>北汽蓝谷</t>
-  </si>
-  <si>
-    <t>山西焦化</t>
-  </si>
-  <si>
     <t>西藏城投</t>
   </si>
   <si>
@@ -937,6 +970,9 @@
     <t>神马股份</t>
   </si>
   <si>
+    <t>中材国际</t>
+  </si>
+  <si>
     <t>开滦股份</t>
   </si>
   <si>
@@ -964,6 +1000,9 @@
     <t>九牧王</t>
   </si>
   <si>
+    <t>滨化股份</t>
+  </si>
+  <si>
     <t>郑煤机</t>
   </si>
   <si>
@@ -973,9 +1012,6 @@
     <t>京运通</t>
   </si>
   <si>
-    <t>中远海控</t>
-  </si>
-  <si>
     <t>德新交运</t>
   </si>
   <si>
@@ -985,12 +1021,21 @@
     <t>天成自控</t>
   </si>
   <si>
+    <t>华贸物流</t>
+  </si>
+  <si>
     <t>渤海轮渡</t>
   </si>
   <si>
+    <t>中贝通信</t>
+  </si>
+  <si>
     <t>东方时尚</t>
   </si>
   <si>
+    <t>吉翔股份</t>
+  </si>
+  <si>
     <t>中通国脉</t>
   </si>
   <si>
@@ -1000,6 +1045,9 @@
     <t>海利生物</t>
   </si>
   <si>
+    <t>永安行</t>
+  </si>
+  <si>
     <t>博敏电子</t>
   </si>
   <si>
@@ -1018,7 +1066,7 @@
     <t>鸣石满天星三号1期</t>
   </si>
   <si>
-    <t>20210222</t>
+    <t>20210225</t>
   </si>
 </sst>
 </file>
@@ -1376,7 +1424,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I162"/>
+  <dimension ref="A1:I170"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1416,25 +1464,25 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="C2">
-        <v>21100</v>
+        <v>18600</v>
       </c>
       <c r="D2">
         <v>28</v>
       </c>
       <c r="E2" t="s">
-        <v>331</v>
+        <v>347</v>
       </c>
       <c r="F2" t="s">
-        <v>332</v>
+        <v>348</v>
       </c>
       <c r="G2" t="s">
-        <v>333</v>
+        <v>349</v>
       </c>
       <c r="H2" t="s">
-        <v>334</v>
+        <v>350</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -1442,25 +1490,25 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="C3">
-        <v>27900</v>
+        <v>26600</v>
       </c>
       <c r="D3">
         <v>28</v>
       </c>
       <c r="E3" t="s">
-        <v>331</v>
+        <v>347</v>
       </c>
       <c r="F3" t="s">
-        <v>332</v>
+        <v>348</v>
       </c>
       <c r="G3" t="s">
-        <v>333</v>
+        <v>349</v>
       </c>
       <c r="H3" t="s">
-        <v>334</v>
+        <v>350</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1468,25 +1516,25 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="C4">
-        <v>36700</v>
+        <v>36500</v>
       </c>
       <c r="D4">
         <v>28</v>
       </c>
       <c r="E4" t="s">
-        <v>331</v>
+        <v>347</v>
       </c>
       <c r="F4" t="s">
-        <v>332</v>
+        <v>348</v>
       </c>
       <c r="G4" t="s">
-        <v>333</v>
+        <v>349</v>
       </c>
       <c r="H4" t="s">
-        <v>334</v>
+        <v>350</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -1494,25 +1542,25 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="C5">
-        <v>16600</v>
+        <v>23000</v>
       </c>
       <c r="D5">
         <v>28</v>
       </c>
       <c r="E5" t="s">
-        <v>331</v>
+        <v>347</v>
       </c>
       <c r="F5" t="s">
-        <v>332</v>
+        <v>348</v>
       </c>
       <c r="G5" t="s">
-        <v>333</v>
+        <v>349</v>
       </c>
       <c r="H5" t="s">
-        <v>334</v>
+        <v>350</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -1520,25 +1568,25 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="C6">
-        <v>27500</v>
+        <v>16600</v>
       </c>
       <c r="D6">
         <v>28</v>
       </c>
       <c r="E6" t="s">
-        <v>331</v>
+        <v>347</v>
       </c>
       <c r="F6" t="s">
-        <v>332</v>
+        <v>348</v>
       </c>
       <c r="G6" t="s">
-        <v>333</v>
+        <v>349</v>
       </c>
       <c r="H6" t="s">
-        <v>334</v>
+        <v>350</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -1546,25 +1594,25 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="C7">
-        <v>30800</v>
+        <v>31700</v>
       </c>
       <c r="D7">
         <v>28</v>
       </c>
       <c r="E7" t="s">
-        <v>331</v>
+        <v>347</v>
       </c>
       <c r="F7" t="s">
-        <v>332</v>
+        <v>348</v>
       </c>
       <c r="G7" t="s">
-        <v>333</v>
+        <v>349</v>
       </c>
       <c r="H7" t="s">
-        <v>334</v>
+        <v>350</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -1572,25 +1620,25 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="C8">
-        <v>25000</v>
+        <v>26000</v>
       </c>
       <c r="D8">
         <v>28</v>
       </c>
       <c r="E8" t="s">
-        <v>331</v>
+        <v>347</v>
       </c>
       <c r="F8" t="s">
-        <v>332</v>
+        <v>348</v>
       </c>
       <c r="G8" t="s">
-        <v>333</v>
+        <v>349</v>
       </c>
       <c r="H8" t="s">
-        <v>334</v>
+        <v>350</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -1598,25 +1646,25 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="C9">
-        <v>31900</v>
+        <v>31400</v>
       </c>
       <c r="D9">
         <v>28</v>
       </c>
       <c r="E9" t="s">
-        <v>331</v>
+        <v>347</v>
       </c>
       <c r="F9" t="s">
-        <v>332</v>
+        <v>348</v>
       </c>
       <c r="G9" t="s">
-        <v>333</v>
+        <v>349</v>
       </c>
       <c r="H9" t="s">
-        <v>334</v>
+        <v>350</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -1624,25 +1672,25 @@
         <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="C10">
-        <v>13000</v>
+        <v>26700</v>
       </c>
       <c r="D10">
         <v>28</v>
       </c>
       <c r="E10" t="s">
-        <v>331</v>
+        <v>347</v>
       </c>
       <c r="F10" t="s">
-        <v>332</v>
+        <v>348</v>
       </c>
       <c r="G10" t="s">
-        <v>333</v>
+        <v>349</v>
       </c>
       <c r="H10" t="s">
-        <v>334</v>
+        <v>350</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -1650,25 +1698,25 @@
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="C11">
-        <v>29900</v>
+        <v>12500</v>
       </c>
       <c r="D11">
         <v>28</v>
       </c>
       <c r="E11" t="s">
-        <v>331</v>
+        <v>347</v>
       </c>
       <c r="F11" t="s">
-        <v>332</v>
+        <v>348</v>
       </c>
       <c r="G11" t="s">
-        <v>333</v>
+        <v>349</v>
       </c>
       <c r="H11" t="s">
-        <v>334</v>
+        <v>350</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -1676,25 +1724,25 @@
         <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="C12">
-        <v>20300</v>
+        <v>33900</v>
       </c>
       <c r="D12">
         <v>28</v>
       </c>
       <c r="E12" t="s">
-        <v>331</v>
+        <v>347</v>
       </c>
       <c r="F12" t="s">
-        <v>332</v>
+        <v>348</v>
       </c>
       <c r="G12" t="s">
-        <v>333</v>
+        <v>349</v>
       </c>
       <c r="H12" t="s">
-        <v>334</v>
+        <v>350</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -1702,25 +1750,25 @@
         <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="C13">
-        <v>12400</v>
+        <v>20400</v>
       </c>
       <c r="D13">
         <v>28</v>
       </c>
       <c r="E13" t="s">
-        <v>331</v>
+        <v>347</v>
       </c>
       <c r="F13" t="s">
-        <v>332</v>
+        <v>348</v>
       </c>
       <c r="G13" t="s">
-        <v>333</v>
+        <v>349</v>
       </c>
       <c r="H13" t="s">
-        <v>334</v>
+        <v>350</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -1728,25 +1776,25 @@
         <v>21</v>
       </c>
       <c r="B14" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="C14">
-        <v>33800</v>
+        <v>34400</v>
       </c>
       <c r="D14">
         <v>28</v>
       </c>
       <c r="E14" t="s">
-        <v>331</v>
+        <v>347</v>
       </c>
       <c r="F14" t="s">
-        <v>332</v>
+        <v>348</v>
       </c>
       <c r="G14" t="s">
-        <v>333</v>
+        <v>349</v>
       </c>
       <c r="H14" t="s">
-        <v>334</v>
+        <v>350</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -1754,25 +1802,25 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="C15">
-        <v>24300</v>
+        <v>11900</v>
       </c>
       <c r="D15">
         <v>28</v>
       </c>
       <c r="E15" t="s">
-        <v>331</v>
+        <v>347</v>
       </c>
       <c r="F15" t="s">
-        <v>332</v>
+        <v>348</v>
       </c>
       <c r="G15" t="s">
-        <v>333</v>
+        <v>349</v>
       </c>
       <c r="H15" t="s">
-        <v>334</v>
+        <v>350</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -1780,25 +1828,25 @@
         <v>23</v>
       </c>
       <c r="B16" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="C16">
-        <v>32000</v>
+        <v>33200</v>
       </c>
       <c r="D16">
         <v>28</v>
       </c>
       <c r="E16" t="s">
-        <v>331</v>
+        <v>347</v>
       </c>
       <c r="F16" t="s">
-        <v>332</v>
+        <v>348</v>
       </c>
       <c r="G16" t="s">
-        <v>333</v>
+        <v>349</v>
       </c>
       <c r="H16" t="s">
-        <v>334</v>
+        <v>350</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1806,25 +1854,25 @@
         <v>24</v>
       </c>
       <c r="B17" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="C17">
-        <v>22200</v>
+        <v>23900</v>
       </c>
       <c r="D17">
         <v>28</v>
       </c>
       <c r="E17" t="s">
-        <v>331</v>
+        <v>347</v>
       </c>
       <c r="F17" t="s">
-        <v>332</v>
+        <v>348</v>
       </c>
       <c r="G17" t="s">
-        <v>333</v>
+        <v>349</v>
       </c>
       <c r="H17" t="s">
-        <v>334</v>
+        <v>350</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1832,25 +1880,25 @@
         <v>25</v>
       </c>
       <c r="B18" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="C18">
-        <v>29900</v>
+        <v>29200</v>
       </c>
       <c r="D18">
         <v>28</v>
       </c>
       <c r="E18" t="s">
-        <v>331</v>
+        <v>347</v>
       </c>
       <c r="F18" t="s">
-        <v>332</v>
+        <v>348</v>
       </c>
       <c r="G18" t="s">
-        <v>333</v>
+        <v>349</v>
       </c>
       <c r="H18" t="s">
-        <v>334</v>
+        <v>350</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1858,25 +1906,25 @@
         <v>26</v>
       </c>
       <c r="B19" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="C19">
-        <v>13200</v>
+        <v>22000</v>
       </c>
       <c r="D19">
         <v>28</v>
       </c>
       <c r="E19" t="s">
-        <v>331</v>
+        <v>347</v>
       </c>
       <c r="F19" t="s">
-        <v>332</v>
+        <v>348</v>
       </c>
       <c r="G19" t="s">
-        <v>333</v>
+        <v>349</v>
       </c>
       <c r="H19" t="s">
-        <v>334</v>
+        <v>350</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1884,25 +1932,25 @@
         <v>27</v>
       </c>
       <c r="B20" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="C20">
-        <v>20600</v>
+        <v>29700</v>
       </c>
       <c r="D20">
         <v>28</v>
       </c>
       <c r="E20" t="s">
-        <v>331</v>
+        <v>347</v>
       </c>
       <c r="F20" t="s">
-        <v>332</v>
+        <v>348</v>
       </c>
       <c r="G20" t="s">
-        <v>333</v>
+        <v>349</v>
       </c>
       <c r="H20" t="s">
-        <v>334</v>
+        <v>350</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1910,25 +1958,25 @@
         <v>28</v>
       </c>
       <c r="B21" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="C21">
-        <v>34100</v>
+        <v>11400</v>
       </c>
       <c r="D21">
         <v>28</v>
       </c>
       <c r="E21" t="s">
-        <v>331</v>
+        <v>347</v>
       </c>
       <c r="F21" t="s">
-        <v>332</v>
+        <v>348</v>
       </c>
       <c r="G21" t="s">
-        <v>333</v>
+        <v>349</v>
       </c>
       <c r="H21" t="s">
-        <v>334</v>
+        <v>350</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1936,25 +1984,25 @@
         <v>29</v>
       </c>
       <c r="B22" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="C22">
-        <v>11200</v>
+        <v>21100</v>
       </c>
       <c r="D22">
         <v>28</v>
       </c>
       <c r="E22" t="s">
-        <v>331</v>
+        <v>347</v>
       </c>
       <c r="F22" t="s">
-        <v>332</v>
+        <v>348</v>
       </c>
       <c r="G22" t="s">
-        <v>333</v>
+        <v>349</v>
       </c>
       <c r="H22" t="s">
-        <v>334</v>
+        <v>350</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1962,25 +2010,25 @@
         <v>30</v>
       </c>
       <c r="B23" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="C23">
-        <v>17000</v>
+        <v>33100</v>
       </c>
       <c r="D23">
         <v>28</v>
       </c>
       <c r="E23" t="s">
-        <v>331</v>
+        <v>347</v>
       </c>
       <c r="F23" t="s">
-        <v>332</v>
+        <v>348</v>
       </c>
       <c r="G23" t="s">
-        <v>333</v>
+        <v>349</v>
       </c>
       <c r="H23" t="s">
-        <v>334</v>
+        <v>350</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1988,25 +2036,25 @@
         <v>31</v>
       </c>
       <c r="B24" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="C24">
-        <v>18400</v>
+        <v>17600</v>
       </c>
       <c r="D24">
         <v>28</v>
       </c>
       <c r="E24" t="s">
-        <v>331</v>
+        <v>347</v>
       </c>
       <c r="F24" t="s">
-        <v>332</v>
+        <v>348</v>
       </c>
       <c r="G24" t="s">
-        <v>333</v>
+        <v>349</v>
       </c>
       <c r="H24" t="s">
-        <v>334</v>
+        <v>350</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -2014,25 +2062,25 @@
         <v>32</v>
       </c>
       <c r="B25" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="C25">
-        <v>17800</v>
+        <v>18300</v>
       </c>
       <c r="D25">
         <v>28</v>
       </c>
       <c r="E25" t="s">
-        <v>331</v>
+        <v>347</v>
       </c>
       <c r="F25" t="s">
-        <v>332</v>
+        <v>348</v>
       </c>
       <c r="G25" t="s">
-        <v>333</v>
+        <v>349</v>
       </c>
       <c r="H25" t="s">
-        <v>334</v>
+        <v>350</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -2040,25 +2088,25 @@
         <v>33</v>
       </c>
       <c r="B26" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="C26">
-        <v>17400</v>
+        <v>19000</v>
       </c>
       <c r="D26">
         <v>28</v>
       </c>
       <c r="E26" t="s">
-        <v>331</v>
+        <v>347</v>
       </c>
       <c r="F26" t="s">
-        <v>332</v>
+        <v>348</v>
       </c>
       <c r="G26" t="s">
-        <v>333</v>
+        <v>349</v>
       </c>
       <c r="H26" t="s">
-        <v>334</v>
+        <v>350</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -2066,25 +2114,25 @@
         <v>34</v>
       </c>
       <c r="B27" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="C27">
-        <v>19400</v>
+        <v>16300</v>
       </c>
       <c r="D27">
         <v>28</v>
       </c>
       <c r="E27" t="s">
-        <v>331</v>
+        <v>347</v>
       </c>
       <c r="F27" t="s">
-        <v>332</v>
+        <v>348</v>
       </c>
       <c r="G27" t="s">
-        <v>333</v>
+        <v>349</v>
       </c>
       <c r="H27" t="s">
-        <v>334</v>
+        <v>350</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -2092,25 +2140,25 @@
         <v>35</v>
       </c>
       <c r="B28" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="C28">
-        <v>14100</v>
+        <v>11900</v>
       </c>
       <c r="D28">
         <v>28</v>
       </c>
       <c r="E28" t="s">
-        <v>331</v>
+        <v>347</v>
       </c>
       <c r="F28" t="s">
-        <v>332</v>
+        <v>348</v>
       </c>
       <c r="G28" t="s">
-        <v>333</v>
+        <v>349</v>
       </c>
       <c r="H28" t="s">
-        <v>334</v>
+        <v>350</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -2118,25 +2166,25 @@
         <v>36</v>
       </c>
       <c r="B29" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="C29">
-        <v>18100</v>
+        <v>17100</v>
       </c>
       <c r="D29">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>331</v>
+        <v>347</v>
       </c>
       <c r="F29" t="s">
-        <v>332</v>
+        <v>348</v>
       </c>
       <c r="G29" t="s">
-        <v>333</v>
+        <v>349</v>
       </c>
       <c r="H29" t="s">
-        <v>334</v>
+        <v>350</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -2144,25 +2192,25 @@
         <v>37</v>
       </c>
       <c r="B30" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="C30">
-        <v>38700</v>
+        <v>19500</v>
       </c>
       <c r="D30">
         <v>28</v>
       </c>
       <c r="E30" t="s">
-        <v>331</v>
+        <v>347</v>
       </c>
       <c r="F30" t="s">
-        <v>332</v>
+        <v>348</v>
       </c>
       <c r="G30" t="s">
-        <v>333</v>
+        <v>349</v>
       </c>
       <c r="H30" t="s">
-        <v>334</v>
+        <v>350</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -2170,25 +2218,25 @@
         <v>38</v>
       </c>
       <c r="B31" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="C31">
-        <v>12300</v>
+        <v>12800</v>
       </c>
       <c r="D31">
         <v>28</v>
       </c>
       <c r="E31" t="s">
-        <v>331</v>
+        <v>347</v>
       </c>
       <c r="F31" t="s">
-        <v>332</v>
+        <v>348</v>
       </c>
       <c r="G31" t="s">
-        <v>333</v>
+        <v>349</v>
       </c>
       <c r="H31" t="s">
-        <v>334</v>
+        <v>350</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -2196,25 +2244,25 @@
         <v>39</v>
       </c>
       <c r="B32" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="C32">
-        <v>33600</v>
+        <v>18600</v>
       </c>
       <c r="D32">
         <v>28</v>
       </c>
       <c r="E32" t="s">
-        <v>331</v>
+        <v>347</v>
       </c>
       <c r="F32" t="s">
-        <v>332</v>
+        <v>348</v>
       </c>
       <c r="G32" t="s">
-        <v>333</v>
+        <v>349</v>
       </c>
       <c r="H32" t="s">
-        <v>334</v>
+        <v>350</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2222,25 +2270,25 @@
         <v>40</v>
       </c>
       <c r="B33" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="C33">
-        <v>13100</v>
+        <v>39800</v>
       </c>
       <c r="D33">
         <v>28</v>
       </c>
       <c r="E33" t="s">
-        <v>331</v>
+        <v>347</v>
       </c>
       <c r="F33" t="s">
-        <v>332</v>
+        <v>348</v>
       </c>
       <c r="G33" t="s">
-        <v>333</v>
+        <v>349</v>
       </c>
       <c r="H33" t="s">
-        <v>334</v>
+        <v>350</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2248,25 +2296,25 @@
         <v>41</v>
       </c>
       <c r="B34" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="C34">
-        <v>24900</v>
+        <v>12300</v>
       </c>
       <c r="D34">
         <v>28</v>
       </c>
       <c r="E34" t="s">
-        <v>331</v>
+        <v>347</v>
       </c>
       <c r="F34" t="s">
-        <v>332</v>
+        <v>348</v>
       </c>
       <c r="G34" t="s">
-        <v>333</v>
+        <v>349</v>
       </c>
       <c r="H34" t="s">
-        <v>334</v>
+        <v>350</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2274,25 +2322,25 @@
         <v>42</v>
       </c>
       <c r="B35" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="C35">
-        <v>11700</v>
+        <v>14400</v>
       </c>
       <c r="D35">
         <v>28</v>
       </c>
       <c r="E35" t="s">
-        <v>331</v>
+        <v>347</v>
       </c>
       <c r="F35" t="s">
-        <v>332</v>
+        <v>348</v>
       </c>
       <c r="G35" t="s">
-        <v>333</v>
+        <v>349</v>
       </c>
       <c r="H35" t="s">
-        <v>334</v>
+        <v>350</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2300,25 +2348,25 @@
         <v>43</v>
       </c>
       <c r="B36" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="C36">
-        <v>30300</v>
+        <v>33300</v>
       </c>
       <c r="D36">
         <v>28</v>
       </c>
       <c r="E36" t="s">
-        <v>331</v>
+        <v>347</v>
       </c>
       <c r="F36" t="s">
-        <v>332</v>
+        <v>348</v>
       </c>
       <c r="G36" t="s">
-        <v>333</v>
+        <v>349</v>
       </c>
       <c r="H36" t="s">
-        <v>334</v>
+        <v>350</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2326,25 +2374,25 @@
         <v>44</v>
       </c>
       <c r="B37" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="C37">
-        <v>18900</v>
+        <v>12600</v>
       </c>
       <c r="D37">
         <v>28</v>
       </c>
       <c r="E37" t="s">
-        <v>331</v>
+        <v>347</v>
       </c>
       <c r="F37" t="s">
-        <v>332</v>
+        <v>348</v>
       </c>
       <c r="G37" t="s">
-        <v>333</v>
+        <v>349</v>
       </c>
       <c r="H37" t="s">
-        <v>334</v>
+        <v>350</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2352,25 +2400,25 @@
         <v>45</v>
       </c>
       <c r="B38" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="C38">
-        <v>23500</v>
+        <v>28400</v>
       </c>
       <c r="D38">
         <v>28</v>
       </c>
       <c r="E38" t="s">
-        <v>331</v>
+        <v>347</v>
       </c>
       <c r="F38" t="s">
-        <v>332</v>
+        <v>348</v>
       </c>
       <c r="G38" t="s">
-        <v>333</v>
+        <v>349</v>
       </c>
       <c r="H38" t="s">
-        <v>334</v>
+        <v>350</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2378,25 +2426,25 @@
         <v>46</v>
       </c>
       <c r="B39" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="C39">
-        <v>13900</v>
+        <v>25900</v>
       </c>
       <c r="D39">
         <v>28</v>
       </c>
       <c r="E39" t="s">
-        <v>331</v>
+        <v>347</v>
       </c>
       <c r="F39" t="s">
-        <v>332</v>
+        <v>348</v>
       </c>
       <c r="G39" t="s">
-        <v>333</v>
+        <v>349</v>
       </c>
       <c r="H39" t="s">
-        <v>334</v>
+        <v>350</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2404,25 +2452,25 @@
         <v>47</v>
       </c>
       <c r="B40" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="C40">
-        <v>38700</v>
+        <v>11300</v>
       </c>
       <c r="D40">
         <v>28</v>
       </c>
       <c r="E40" t="s">
-        <v>331</v>
+        <v>347</v>
       </c>
       <c r="F40" t="s">
-        <v>332</v>
+        <v>348</v>
       </c>
       <c r="G40" t="s">
-        <v>333</v>
+        <v>349</v>
       </c>
       <c r="H40" t="s">
-        <v>334</v>
+        <v>350</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2430,25 +2478,25 @@
         <v>48</v>
       </c>
       <c r="B41" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="C41">
-        <v>29000</v>
+        <v>36200</v>
       </c>
       <c r="D41">
         <v>28</v>
       </c>
       <c r="E41" t="s">
-        <v>331</v>
+        <v>347</v>
       </c>
       <c r="F41" t="s">
-        <v>332</v>
+        <v>348</v>
       </c>
       <c r="G41" t="s">
-        <v>333</v>
+        <v>349</v>
       </c>
       <c r="H41" t="s">
-        <v>334</v>
+        <v>350</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2456,25 +2504,25 @@
         <v>49</v>
       </c>
       <c r="B42" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="C42">
-        <v>35100</v>
+        <v>29500</v>
       </c>
       <c r="D42">
         <v>28</v>
       </c>
       <c r="E42" t="s">
-        <v>331</v>
+        <v>347</v>
       </c>
       <c r="F42" t="s">
-        <v>332</v>
+        <v>348</v>
       </c>
       <c r="G42" t="s">
-        <v>333</v>
+        <v>349</v>
       </c>
       <c r="H42" t="s">
-        <v>334</v>
+        <v>350</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2482,25 +2530,25 @@
         <v>50</v>
       </c>
       <c r="B43" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="C43">
-        <v>31100</v>
+        <v>19100</v>
       </c>
       <c r="D43">
         <v>28</v>
       </c>
       <c r="E43" t="s">
-        <v>331</v>
+        <v>347</v>
       </c>
       <c r="F43" t="s">
-        <v>332</v>
+        <v>348</v>
       </c>
       <c r="G43" t="s">
-        <v>333</v>
+        <v>349</v>
       </c>
       <c r="H43" t="s">
-        <v>334</v>
+        <v>350</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2508,25 +2556,25 @@
         <v>51</v>
       </c>
       <c r="B44" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="C44">
-        <v>20700</v>
+        <v>22600</v>
       </c>
       <c r="D44">
         <v>28</v>
       </c>
       <c r="E44" t="s">
-        <v>331</v>
+        <v>347</v>
       </c>
       <c r="F44" t="s">
-        <v>332</v>
+        <v>348</v>
       </c>
       <c r="G44" t="s">
-        <v>333</v>
+        <v>349</v>
       </c>
       <c r="H44" t="s">
-        <v>334</v>
+        <v>350</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2534,25 +2582,25 @@
         <v>52</v>
       </c>
       <c r="B45" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="C45">
-        <v>22100</v>
+        <v>13200</v>
       </c>
       <c r="D45">
         <v>28</v>
       </c>
       <c r="E45" t="s">
-        <v>331</v>
+        <v>347</v>
       </c>
       <c r="F45" t="s">
-        <v>332</v>
+        <v>348</v>
       </c>
       <c r="G45" t="s">
-        <v>333</v>
+        <v>349</v>
       </c>
       <c r="H45" t="s">
-        <v>334</v>
+        <v>350</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2560,25 +2608,25 @@
         <v>53</v>
       </c>
       <c r="B46" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="C46">
-        <v>33800</v>
+        <v>29000</v>
       </c>
       <c r="D46">
         <v>28</v>
       </c>
       <c r="E46" t="s">
-        <v>331</v>
+        <v>347</v>
       </c>
       <c r="F46" t="s">
-        <v>332</v>
+        <v>348</v>
       </c>
       <c r="G46" t="s">
-        <v>333</v>
+        <v>349</v>
       </c>
       <c r="H46" t="s">
-        <v>334</v>
+        <v>350</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2586,25 +2634,25 @@
         <v>54</v>
       </c>
       <c r="B47" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="C47">
-        <v>18100</v>
+        <v>34500</v>
       </c>
       <c r="D47">
         <v>28</v>
       </c>
       <c r="E47" t="s">
-        <v>331</v>
+        <v>347</v>
       </c>
       <c r="F47" t="s">
-        <v>332</v>
+        <v>348</v>
       </c>
       <c r="G47" t="s">
-        <v>333</v>
+        <v>349</v>
       </c>
       <c r="H47" t="s">
-        <v>334</v>
+        <v>350</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2612,25 +2660,25 @@
         <v>55</v>
       </c>
       <c r="B48" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="C48">
-        <v>18700</v>
+        <v>20400</v>
       </c>
       <c r="D48">
         <v>28</v>
       </c>
       <c r="E48" t="s">
-        <v>331</v>
+        <v>347</v>
       </c>
       <c r="F48" t="s">
-        <v>332</v>
+        <v>348</v>
       </c>
       <c r="G48" t="s">
-        <v>333</v>
+        <v>349</v>
       </c>
       <c r="H48" t="s">
-        <v>334</v>
+        <v>350</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2638,25 +2686,25 @@
         <v>56</v>
       </c>
       <c r="B49" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="C49">
-        <v>37100</v>
+        <v>21000</v>
       </c>
       <c r="D49">
         <v>28</v>
       </c>
       <c r="E49" t="s">
-        <v>331</v>
+        <v>347</v>
       </c>
       <c r="F49" t="s">
-        <v>332</v>
+        <v>348</v>
       </c>
       <c r="G49" t="s">
-        <v>333</v>
+        <v>349</v>
       </c>
       <c r="H49" t="s">
-        <v>334</v>
+        <v>350</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2664,25 +2712,25 @@
         <v>57</v>
       </c>
       <c r="B50" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="C50">
-        <v>14600</v>
+        <v>22200</v>
       </c>
       <c r="D50">
         <v>28</v>
       </c>
       <c r="E50" t="s">
-        <v>331</v>
+        <v>347</v>
       </c>
       <c r="F50" t="s">
-        <v>332</v>
+        <v>348</v>
       </c>
       <c r="G50" t="s">
-        <v>333</v>
+        <v>349</v>
       </c>
       <c r="H50" t="s">
-        <v>334</v>
+        <v>350</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2690,25 +2738,25 @@
         <v>58</v>
       </c>
       <c r="B51" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="C51">
-        <v>24700</v>
+        <v>33400</v>
       </c>
       <c r="D51">
         <v>28</v>
       </c>
       <c r="E51" t="s">
-        <v>331</v>
+        <v>347</v>
       </c>
       <c r="F51" t="s">
-        <v>332</v>
+        <v>348</v>
       </c>
       <c r="G51" t="s">
-        <v>333</v>
+        <v>349</v>
       </c>
       <c r="H51" t="s">
-        <v>334</v>
+        <v>350</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2716,25 +2764,25 @@
         <v>59</v>
       </c>
       <c r="B52" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="C52">
-        <v>19400</v>
+        <v>18900</v>
       </c>
       <c r="D52">
         <v>28</v>
       </c>
       <c r="E52" t="s">
-        <v>331</v>
+        <v>347</v>
       </c>
       <c r="F52" t="s">
-        <v>332</v>
+        <v>348</v>
       </c>
       <c r="G52" t="s">
-        <v>333</v>
+        <v>349</v>
       </c>
       <c r="H52" t="s">
-        <v>334</v>
+        <v>350</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2742,25 +2790,25 @@
         <v>60</v>
       </c>
       <c r="B53" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="C53">
-        <v>17200</v>
+        <v>38600</v>
       </c>
       <c r="D53">
         <v>28</v>
       </c>
       <c r="E53" t="s">
-        <v>331</v>
+        <v>347</v>
       </c>
       <c r="F53" t="s">
-        <v>332</v>
+        <v>348</v>
       </c>
       <c r="G53" t="s">
-        <v>333</v>
+        <v>349</v>
       </c>
       <c r="H53" t="s">
-        <v>334</v>
+        <v>350</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2768,25 +2816,25 @@
         <v>61</v>
       </c>
       <c r="B54" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="C54">
-        <v>28100</v>
+        <v>14500</v>
       </c>
       <c r="D54">
         <v>28</v>
       </c>
       <c r="E54" t="s">
-        <v>331</v>
+        <v>347</v>
       </c>
       <c r="F54" t="s">
-        <v>332</v>
+        <v>348</v>
       </c>
       <c r="G54" t="s">
-        <v>333</v>
+        <v>349</v>
       </c>
       <c r="H54" t="s">
-        <v>334</v>
+        <v>350</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2794,25 +2842,25 @@
         <v>62</v>
       </c>
       <c r="B55" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="C55">
-        <v>24300</v>
+        <v>25600</v>
       </c>
       <c r="D55">
         <v>28</v>
       </c>
       <c r="E55" t="s">
-        <v>331</v>
+        <v>347</v>
       </c>
       <c r="F55" t="s">
-        <v>332</v>
+        <v>348</v>
       </c>
       <c r="G55" t="s">
-        <v>333</v>
+        <v>349</v>
       </c>
       <c r="H55" t="s">
-        <v>334</v>
+        <v>350</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2820,25 +2868,25 @@
         <v>63</v>
       </c>
       <c r="B56" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="C56">
-        <v>37300</v>
+        <v>23900</v>
       </c>
       <c r="D56">
         <v>28</v>
       </c>
       <c r="E56" t="s">
-        <v>331</v>
+        <v>347</v>
       </c>
       <c r="F56" t="s">
-        <v>332</v>
+        <v>348</v>
       </c>
       <c r="G56" t="s">
-        <v>333</v>
+        <v>349</v>
       </c>
       <c r="H56" t="s">
-        <v>334</v>
+        <v>350</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2846,25 +2894,25 @@
         <v>64</v>
       </c>
       <c r="B57" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="C57">
-        <v>34400</v>
+        <v>19800</v>
       </c>
       <c r="D57">
         <v>28</v>
       </c>
       <c r="E57" t="s">
-        <v>331</v>
+        <v>347</v>
       </c>
       <c r="F57" t="s">
-        <v>332</v>
+        <v>348</v>
       </c>
       <c r="G57" t="s">
-        <v>333</v>
+        <v>349</v>
       </c>
       <c r="H57" t="s">
-        <v>334</v>
+        <v>350</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2872,25 +2920,25 @@
         <v>65</v>
       </c>
       <c r="B58" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="C58">
-        <v>18700</v>
+        <v>17200</v>
       </c>
       <c r="D58">
         <v>28</v>
       </c>
       <c r="E58" t="s">
-        <v>331</v>
+        <v>347</v>
       </c>
       <c r="F58" t="s">
-        <v>332</v>
+        <v>348</v>
       </c>
       <c r="G58" t="s">
-        <v>333</v>
+        <v>349</v>
       </c>
       <c r="H58" t="s">
-        <v>334</v>
+        <v>350</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2898,25 +2946,25 @@
         <v>66</v>
       </c>
       <c r="B59" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="C59">
-        <v>31000</v>
+        <v>28300</v>
       </c>
       <c r="D59">
         <v>28</v>
       </c>
       <c r="E59" t="s">
-        <v>331</v>
+        <v>347</v>
       </c>
       <c r="F59" t="s">
-        <v>332</v>
+        <v>348</v>
       </c>
       <c r="G59" t="s">
-        <v>333</v>
+        <v>349</v>
       </c>
       <c r="H59" t="s">
-        <v>334</v>
+        <v>350</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2924,25 +2972,25 @@
         <v>67</v>
       </c>
       <c r="B60" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="C60">
-        <v>11900</v>
+        <v>23100</v>
       </c>
       <c r="D60">
         <v>28</v>
       </c>
       <c r="E60" t="s">
-        <v>331</v>
+        <v>347</v>
       </c>
       <c r="F60" t="s">
-        <v>332</v>
+        <v>348</v>
       </c>
       <c r="G60" t="s">
-        <v>333</v>
+        <v>349</v>
       </c>
       <c r="H60" t="s">
-        <v>334</v>
+        <v>350</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2950,25 +2998,25 @@
         <v>68</v>
       </c>
       <c r="B61" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="C61">
-        <v>12300</v>
+        <v>37300</v>
       </c>
       <c r="D61">
         <v>28</v>
       </c>
       <c r="E61" t="s">
-        <v>331</v>
+        <v>347</v>
       </c>
       <c r="F61" t="s">
-        <v>332</v>
+        <v>348</v>
       </c>
       <c r="G61" t="s">
-        <v>333</v>
+        <v>349</v>
       </c>
       <c r="H61" t="s">
-        <v>334</v>
+        <v>350</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2976,25 +3024,25 @@
         <v>69</v>
       </c>
       <c r="B62" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="C62">
-        <v>12800</v>
+        <v>15600</v>
       </c>
       <c r="D62">
         <v>28</v>
       </c>
       <c r="E62" t="s">
-        <v>331</v>
+        <v>347</v>
       </c>
       <c r="F62" t="s">
-        <v>332</v>
+        <v>348</v>
       </c>
       <c r="G62" t="s">
-        <v>333</v>
+        <v>349</v>
       </c>
       <c r="H62" t="s">
-        <v>334</v>
+        <v>350</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -3002,25 +3050,25 @@
         <v>70</v>
       </c>
       <c r="B63" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="C63">
-        <v>13600</v>
+        <v>34600</v>
       </c>
       <c r="D63">
         <v>28</v>
       </c>
       <c r="E63" t="s">
-        <v>331</v>
+        <v>347</v>
       </c>
       <c r="F63" t="s">
-        <v>332</v>
+        <v>348</v>
       </c>
       <c r="G63" t="s">
-        <v>333</v>
+        <v>349</v>
       </c>
       <c r="H63" t="s">
-        <v>334</v>
+        <v>350</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -3028,25 +3076,25 @@
         <v>71</v>
       </c>
       <c r="B64" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="C64">
-        <v>1100</v>
+        <v>18100</v>
       </c>
       <c r="D64">
         <v>28</v>
       </c>
       <c r="E64" t="s">
-        <v>331</v>
+        <v>347</v>
       </c>
       <c r="F64" t="s">
-        <v>332</v>
+        <v>348</v>
       </c>
       <c r="G64" t="s">
-        <v>333</v>
+        <v>349</v>
       </c>
       <c r="H64" t="s">
-        <v>334</v>
+        <v>350</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -3054,25 +3102,25 @@
         <v>72</v>
       </c>
       <c r="B65" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="C65">
-        <v>19900</v>
+        <v>30800</v>
       </c>
       <c r="D65">
         <v>28</v>
       </c>
       <c r="E65" t="s">
-        <v>331</v>
+        <v>347</v>
       </c>
       <c r="F65" t="s">
-        <v>332</v>
+        <v>348</v>
       </c>
       <c r="G65" t="s">
-        <v>333</v>
+        <v>349</v>
       </c>
       <c r="H65" t="s">
-        <v>334</v>
+        <v>350</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -3080,25 +3128,25 @@
         <v>73</v>
       </c>
       <c r="B66" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="C66">
-        <v>24700</v>
+        <v>12400</v>
       </c>
       <c r="D66">
         <v>28</v>
       </c>
       <c r="E66" t="s">
-        <v>331</v>
+        <v>347</v>
       </c>
       <c r="F66" t="s">
-        <v>332</v>
+        <v>348</v>
       </c>
       <c r="G66" t="s">
-        <v>333</v>
+        <v>349</v>
       </c>
       <c r="H66" t="s">
-        <v>334</v>
+        <v>350</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -3106,25 +3154,25 @@
         <v>74</v>
       </c>
       <c r="B67" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="C67">
-        <v>4000</v>
+        <v>12300</v>
       </c>
       <c r="D67">
         <v>28</v>
       </c>
       <c r="E67" t="s">
-        <v>331</v>
+        <v>347</v>
       </c>
       <c r="F67" t="s">
-        <v>332</v>
+        <v>348</v>
       </c>
       <c r="G67" t="s">
-        <v>333</v>
+        <v>349</v>
       </c>
       <c r="H67" t="s">
-        <v>334</v>
+        <v>350</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -3132,25 +3180,25 @@
         <v>75</v>
       </c>
       <c r="B68" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="C68">
-        <v>25600</v>
+        <v>5400</v>
       </c>
       <c r="D68">
         <v>28</v>
       </c>
       <c r="E68" t="s">
-        <v>331</v>
+        <v>347</v>
       </c>
       <c r="F68" t="s">
-        <v>332</v>
+        <v>348</v>
       </c>
       <c r="G68" t="s">
-        <v>333</v>
+        <v>349</v>
       </c>
       <c r="H68" t="s">
-        <v>334</v>
+        <v>350</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -3158,25 +3206,25 @@
         <v>76</v>
       </c>
       <c r="B69" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="C69">
-        <v>32100</v>
+        <v>13500</v>
       </c>
       <c r="D69">
         <v>28</v>
       </c>
       <c r="E69" t="s">
-        <v>331</v>
+        <v>347</v>
       </c>
       <c r="F69" t="s">
-        <v>332</v>
+        <v>348</v>
       </c>
       <c r="G69" t="s">
-        <v>333</v>
+        <v>349</v>
       </c>
       <c r="H69" t="s">
-        <v>334</v>
+        <v>350</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3184,25 +3232,25 @@
         <v>77</v>
       </c>
       <c r="B70" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="C70">
-        <v>14100</v>
+        <v>1200</v>
       </c>
       <c r="D70">
         <v>28</v>
       </c>
       <c r="E70" t="s">
-        <v>331</v>
+        <v>347</v>
       </c>
       <c r="F70" t="s">
-        <v>332</v>
+        <v>348</v>
       </c>
       <c r="G70" t="s">
-        <v>333</v>
+        <v>349</v>
       </c>
       <c r="H70" t="s">
-        <v>334</v>
+        <v>350</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3210,25 +3258,25 @@
         <v>78</v>
       </c>
       <c r="B71" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="C71">
-        <v>27000</v>
+        <v>19900</v>
       </c>
       <c r="D71">
         <v>28</v>
       </c>
       <c r="E71" t="s">
-        <v>331</v>
+        <v>347</v>
       </c>
       <c r="F71" t="s">
-        <v>332</v>
+        <v>348</v>
       </c>
       <c r="G71" t="s">
-        <v>333</v>
+        <v>349</v>
       </c>
       <c r="H71" t="s">
-        <v>334</v>
+        <v>350</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3236,25 +3284,25 @@
         <v>79</v>
       </c>
       <c r="B72" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="C72">
-        <v>24600</v>
+        <v>23400</v>
       </c>
       <c r="D72">
         <v>28</v>
       </c>
       <c r="E72" t="s">
-        <v>331</v>
+        <v>347</v>
       </c>
       <c r="F72" t="s">
-        <v>332</v>
+        <v>348</v>
       </c>
       <c r="G72" t="s">
-        <v>333</v>
+        <v>349</v>
       </c>
       <c r="H72" t="s">
-        <v>334</v>
+        <v>350</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3262,25 +3310,25 @@
         <v>80</v>
       </c>
       <c r="B73" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="C73">
-        <v>24400</v>
+        <v>25800</v>
       </c>
       <c r="D73">
         <v>28</v>
       </c>
       <c r="E73" t="s">
-        <v>331</v>
+        <v>347</v>
       </c>
       <c r="F73" t="s">
-        <v>332</v>
+        <v>348</v>
       </c>
       <c r="G73" t="s">
-        <v>333</v>
+        <v>349</v>
       </c>
       <c r="H73" t="s">
-        <v>334</v>
+        <v>350</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3288,25 +3336,25 @@
         <v>81</v>
       </c>
       <c r="B74" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="C74">
-        <v>4600</v>
+        <v>14400</v>
       </c>
       <c r="D74">
         <v>28</v>
       </c>
       <c r="E74" t="s">
-        <v>331</v>
+        <v>347</v>
       </c>
       <c r="F74" t="s">
-        <v>332</v>
+        <v>348</v>
       </c>
       <c r="G74" t="s">
-        <v>333</v>
+        <v>349</v>
       </c>
       <c r="H74" t="s">
-        <v>334</v>
+        <v>350</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3314,25 +3362,25 @@
         <v>82</v>
       </c>
       <c r="B75" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="C75">
-        <v>36000</v>
+        <v>27600</v>
       </c>
       <c r="D75">
         <v>28</v>
       </c>
       <c r="E75" t="s">
-        <v>331</v>
+        <v>347</v>
       </c>
       <c r="F75" t="s">
-        <v>332</v>
+        <v>348</v>
       </c>
       <c r="G75" t="s">
-        <v>333</v>
+        <v>349</v>
       </c>
       <c r="H75" t="s">
-        <v>334</v>
+        <v>350</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3340,25 +3388,25 @@
         <v>83</v>
       </c>
       <c r="B76" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="C76">
-        <v>28000</v>
+        <v>24700</v>
       </c>
       <c r="D76">
         <v>28</v>
       </c>
       <c r="E76" t="s">
-        <v>331</v>
+        <v>347</v>
       </c>
       <c r="F76" t="s">
-        <v>332</v>
+        <v>348</v>
       </c>
       <c r="G76" t="s">
-        <v>333</v>
+        <v>349</v>
       </c>
       <c r="H76" t="s">
-        <v>334</v>
+        <v>350</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3366,25 +3414,25 @@
         <v>84</v>
       </c>
       <c r="B77" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="C77">
-        <v>31000</v>
+        <v>4700</v>
       </c>
       <c r="D77">
         <v>28</v>
       </c>
       <c r="E77" t="s">
-        <v>331</v>
+        <v>347</v>
       </c>
       <c r="F77" t="s">
-        <v>332</v>
+        <v>348</v>
       </c>
       <c r="G77" t="s">
-        <v>333</v>
+        <v>349</v>
       </c>
       <c r="H77" t="s">
-        <v>334</v>
+        <v>350</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3392,25 +3440,25 @@
         <v>85</v>
       </c>
       <c r="B78" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="C78">
-        <v>21800</v>
+        <v>37300</v>
       </c>
       <c r="D78">
         <v>28</v>
       </c>
       <c r="E78" t="s">
-        <v>331</v>
+        <v>347</v>
       </c>
       <c r="F78" t="s">
-        <v>332</v>
+        <v>348</v>
       </c>
       <c r="G78" t="s">
-        <v>333</v>
+        <v>349</v>
       </c>
       <c r="H78" t="s">
-        <v>334</v>
+        <v>350</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3418,25 +3466,25 @@
         <v>86</v>
       </c>
       <c r="B79" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="C79">
-        <v>35500</v>
+        <v>31900</v>
       </c>
       <c r="D79">
         <v>28</v>
       </c>
       <c r="E79" t="s">
-        <v>331</v>
+        <v>347</v>
       </c>
       <c r="F79" t="s">
-        <v>332</v>
+        <v>348</v>
       </c>
       <c r="G79" t="s">
-        <v>333</v>
+        <v>349</v>
       </c>
       <c r="H79" t="s">
-        <v>334</v>
+        <v>350</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3444,25 +3492,25 @@
         <v>87</v>
       </c>
       <c r="B80" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="C80">
-        <v>34700</v>
+        <v>18500</v>
       </c>
       <c r="D80">
         <v>28</v>
       </c>
       <c r="E80" t="s">
-        <v>331</v>
+        <v>347</v>
       </c>
       <c r="F80" t="s">
-        <v>332</v>
+        <v>348</v>
       </c>
       <c r="G80" t="s">
-        <v>333</v>
+        <v>349</v>
       </c>
       <c r="H80" t="s">
-        <v>334</v>
+        <v>350</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3470,25 +3518,25 @@
         <v>88</v>
       </c>
       <c r="B81" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="C81">
-        <v>17400</v>
+        <v>36500</v>
       </c>
       <c r="D81">
         <v>28</v>
       </c>
       <c r="E81" t="s">
-        <v>331</v>
+        <v>347</v>
       </c>
       <c r="F81" t="s">
-        <v>332</v>
+        <v>348</v>
       </c>
       <c r="G81" t="s">
-        <v>333</v>
+        <v>349</v>
       </c>
       <c r="H81" t="s">
-        <v>334</v>
+        <v>350</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3496,25 +3544,25 @@
         <v>89</v>
       </c>
       <c r="B82" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="C82">
-        <v>26600</v>
+        <v>35700</v>
       </c>
       <c r="D82">
         <v>28</v>
       </c>
       <c r="E82" t="s">
-        <v>331</v>
+        <v>347</v>
       </c>
       <c r="F82" t="s">
-        <v>332</v>
+        <v>348</v>
       </c>
       <c r="G82" t="s">
-        <v>333</v>
+        <v>349</v>
       </c>
       <c r="H82" t="s">
-        <v>334</v>
+        <v>350</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3522,25 +3570,25 @@
         <v>90</v>
       </c>
       <c r="B83" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="C83">
-        <v>27100</v>
+        <v>18000</v>
       </c>
       <c r="D83">
         <v>28</v>
       </c>
       <c r="E83" t="s">
-        <v>331</v>
+        <v>347</v>
       </c>
       <c r="F83" t="s">
-        <v>332</v>
+        <v>348</v>
       </c>
       <c r="G83" t="s">
-        <v>333</v>
+        <v>349</v>
       </c>
       <c r="H83" t="s">
-        <v>334</v>
+        <v>350</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3548,25 +3596,25 @@
         <v>91</v>
       </c>
       <c r="B84" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="C84">
-        <v>18300</v>
+        <v>26200</v>
       </c>
       <c r="D84">
         <v>28</v>
       </c>
       <c r="E84" t="s">
-        <v>331</v>
+        <v>347</v>
       </c>
       <c r="F84" t="s">
-        <v>332</v>
+        <v>348</v>
       </c>
       <c r="G84" t="s">
-        <v>333</v>
+        <v>349</v>
       </c>
       <c r="H84" t="s">
-        <v>334</v>
+        <v>350</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3574,25 +3622,25 @@
         <v>92</v>
       </c>
       <c r="B85" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="C85">
-        <v>6400</v>
+        <v>27700</v>
       </c>
       <c r="D85">
         <v>28</v>
       </c>
       <c r="E85" t="s">
-        <v>331</v>
+        <v>347</v>
       </c>
       <c r="F85" t="s">
-        <v>332</v>
+        <v>348</v>
       </c>
       <c r="G85" t="s">
-        <v>333</v>
+        <v>349</v>
       </c>
       <c r="H85" t="s">
-        <v>334</v>
+        <v>350</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3600,25 +3648,25 @@
         <v>93</v>
       </c>
       <c r="B86" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="C86">
-        <v>29700</v>
+        <v>18400</v>
       </c>
       <c r="D86">
         <v>28</v>
       </c>
       <c r="E86" t="s">
-        <v>331</v>
+        <v>347</v>
       </c>
       <c r="F86" t="s">
-        <v>332</v>
+        <v>348</v>
       </c>
       <c r="G86" t="s">
-        <v>333</v>
+        <v>349</v>
       </c>
       <c r="H86" t="s">
-        <v>334</v>
+        <v>350</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3626,25 +3674,25 @@
         <v>94</v>
       </c>
       <c r="B87" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="C87">
-        <v>7700</v>
+        <v>6600</v>
       </c>
       <c r="D87">
         <v>28</v>
       </c>
       <c r="E87" t="s">
-        <v>331</v>
+        <v>347</v>
       </c>
       <c r="F87" t="s">
-        <v>332</v>
+        <v>348</v>
       </c>
       <c r="G87" t="s">
-        <v>333</v>
+        <v>349</v>
       </c>
       <c r="H87" t="s">
-        <v>334</v>
+        <v>350</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3652,25 +3700,25 @@
         <v>95</v>
       </c>
       <c r="B88" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="C88">
-        <v>21700</v>
+        <v>24700</v>
       </c>
       <c r="D88">
         <v>28</v>
       </c>
       <c r="E88" t="s">
-        <v>331</v>
+        <v>347</v>
       </c>
       <c r="F88" t="s">
-        <v>332</v>
+        <v>348</v>
       </c>
       <c r="G88" t="s">
-        <v>333</v>
+        <v>349</v>
       </c>
       <c r="H88" t="s">
-        <v>334</v>
+        <v>350</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3678,25 +3726,25 @@
         <v>96</v>
       </c>
       <c r="B89" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="C89">
-        <v>16800</v>
+        <v>26700</v>
       </c>
       <c r="D89">
         <v>28</v>
       </c>
       <c r="E89" t="s">
-        <v>331</v>
+        <v>347</v>
       </c>
       <c r="F89" t="s">
-        <v>332</v>
+        <v>348</v>
       </c>
       <c r="G89" t="s">
-        <v>333</v>
+        <v>349</v>
       </c>
       <c r="H89" t="s">
-        <v>334</v>
+        <v>350</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3704,25 +3752,25 @@
         <v>97</v>
       </c>
       <c r="B90" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="C90">
-        <v>22500</v>
+        <v>23400</v>
       </c>
       <c r="D90">
         <v>28</v>
       </c>
       <c r="E90" t="s">
-        <v>331</v>
+        <v>347</v>
       </c>
       <c r="F90" t="s">
-        <v>332</v>
+        <v>348</v>
       </c>
       <c r="G90" t="s">
-        <v>333</v>
+        <v>349</v>
       </c>
       <c r="H90" t="s">
-        <v>334</v>
+        <v>350</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3730,25 +3778,25 @@
         <v>98</v>
       </c>
       <c r="B91" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="C91">
-        <v>13500</v>
+        <v>7900</v>
       </c>
       <c r="D91">
         <v>28</v>
       </c>
       <c r="E91" t="s">
-        <v>331</v>
+        <v>347</v>
       </c>
       <c r="F91" t="s">
-        <v>332</v>
+        <v>348</v>
       </c>
       <c r="G91" t="s">
-        <v>333</v>
+        <v>349</v>
       </c>
       <c r="H91" t="s">
-        <v>334</v>
+        <v>350</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3756,25 +3804,25 @@
         <v>99</v>
       </c>
       <c r="B92" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="C92">
-        <v>4900</v>
+        <v>4700</v>
       </c>
       <c r="D92">
         <v>28</v>
       </c>
       <c r="E92" t="s">
-        <v>331</v>
+        <v>347</v>
       </c>
       <c r="F92" t="s">
-        <v>332</v>
+        <v>348</v>
       </c>
       <c r="G92" t="s">
-        <v>333</v>
+        <v>349</v>
       </c>
       <c r="H92" t="s">
-        <v>334</v>
+        <v>350</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3782,25 +3830,25 @@
         <v>100</v>
       </c>
       <c r="B93" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="C93">
-        <v>1700</v>
+        <v>21600</v>
       </c>
       <c r="D93">
         <v>28</v>
       </c>
       <c r="E93" t="s">
-        <v>331</v>
+        <v>347</v>
       </c>
       <c r="F93" t="s">
-        <v>332</v>
+        <v>348</v>
       </c>
       <c r="G93" t="s">
-        <v>333</v>
+        <v>349</v>
       </c>
       <c r="H93" t="s">
-        <v>334</v>
+        <v>350</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3808,25 +3856,25 @@
         <v>101</v>
       </c>
       <c r="B94" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="C94">
-        <v>1200</v>
+        <v>16500</v>
       </c>
       <c r="D94">
         <v>28</v>
       </c>
       <c r="E94" t="s">
-        <v>331</v>
+        <v>347</v>
       </c>
       <c r="F94" t="s">
-        <v>332</v>
+        <v>348</v>
       </c>
       <c r="G94" t="s">
-        <v>333</v>
+        <v>349</v>
       </c>
       <c r="H94" t="s">
-        <v>334</v>
+        <v>350</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3834,25 +3882,25 @@
         <v>102</v>
       </c>
       <c r="B95" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="C95">
-        <v>27100</v>
+        <v>20500</v>
       </c>
       <c r="D95">
         <v>28</v>
       </c>
       <c r="E95" t="s">
-        <v>331</v>
+        <v>347</v>
       </c>
       <c r="F95" t="s">
-        <v>332</v>
+        <v>348</v>
       </c>
       <c r="G95" t="s">
-        <v>333</v>
+        <v>349</v>
       </c>
       <c r="H95" t="s">
-        <v>334</v>
+        <v>350</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3860,25 +3908,25 @@
         <v>103</v>
       </c>
       <c r="B96" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="C96">
-        <v>15200</v>
+        <v>32300</v>
       </c>
       <c r="D96">
         <v>28</v>
       </c>
       <c r="E96" t="s">
-        <v>331</v>
+        <v>347</v>
       </c>
       <c r="F96" t="s">
-        <v>332</v>
+        <v>348</v>
       </c>
       <c r="G96" t="s">
-        <v>333</v>
+        <v>349</v>
       </c>
       <c r="H96" t="s">
-        <v>334</v>
+        <v>350</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3886,25 +3934,25 @@
         <v>104</v>
       </c>
       <c r="B97" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="C97">
-        <v>15900</v>
+        <v>13500</v>
       </c>
       <c r="D97">
         <v>28</v>
       </c>
       <c r="E97" t="s">
-        <v>331</v>
+        <v>347</v>
       </c>
       <c r="F97" t="s">
-        <v>332</v>
+        <v>348</v>
       </c>
       <c r="G97" t="s">
-        <v>333</v>
+        <v>349</v>
       </c>
       <c r="H97" t="s">
-        <v>334</v>
+        <v>350</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3912,25 +3960,25 @@
         <v>105</v>
       </c>
       <c r="B98" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="C98">
-        <v>11600</v>
+        <v>4800</v>
       </c>
       <c r="D98">
         <v>28</v>
       </c>
       <c r="E98" t="s">
-        <v>331</v>
+        <v>347</v>
       </c>
       <c r="F98" t="s">
-        <v>332</v>
+        <v>348</v>
       </c>
       <c r="G98" t="s">
-        <v>333</v>
+        <v>349</v>
       </c>
       <c r="H98" t="s">
-        <v>334</v>
+        <v>350</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3938,25 +3986,25 @@
         <v>106</v>
       </c>
       <c r="B99" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="C99">
-        <v>16000</v>
+        <v>10900</v>
       </c>
       <c r="D99">
         <v>28</v>
       </c>
       <c r="E99" t="s">
-        <v>331</v>
+        <v>347</v>
       </c>
       <c r="F99" t="s">
-        <v>332</v>
+        <v>348</v>
       </c>
       <c r="G99" t="s">
-        <v>333</v>
+        <v>349</v>
       </c>
       <c r="H99" t="s">
-        <v>334</v>
+        <v>350</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3964,25 +4012,25 @@
         <v>107</v>
       </c>
       <c r="B100" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="C100">
-        <v>24300</v>
+        <v>5200</v>
       </c>
       <c r="D100">
         <v>28</v>
       </c>
       <c r="E100" t="s">
-        <v>331</v>
+        <v>347</v>
       </c>
       <c r="F100" t="s">
-        <v>332</v>
+        <v>348</v>
       </c>
       <c r="G100" t="s">
-        <v>333</v>
+        <v>349</v>
       </c>
       <c r="H100" t="s">
-        <v>334</v>
+        <v>350</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3990,25 +4038,25 @@
         <v>108</v>
       </c>
       <c r="B101" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="C101">
-        <v>21700</v>
+        <v>27900</v>
       </c>
       <c r="D101">
         <v>28</v>
       </c>
       <c r="E101" t="s">
-        <v>331</v>
+        <v>347</v>
       </c>
       <c r="F101" t="s">
-        <v>332</v>
+        <v>348</v>
       </c>
       <c r="G101" t="s">
-        <v>333</v>
+        <v>349</v>
       </c>
       <c r="H101" t="s">
-        <v>334</v>
+        <v>350</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -4016,25 +4064,25 @@
         <v>109</v>
       </c>
       <c r="B102" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="C102">
-        <v>10200</v>
+        <v>15400</v>
       </c>
       <c r="D102">
         <v>28</v>
       </c>
       <c r="E102" t="s">
-        <v>331</v>
+        <v>347</v>
       </c>
       <c r="F102" t="s">
-        <v>332</v>
+        <v>348</v>
       </c>
       <c r="G102" t="s">
-        <v>333</v>
+        <v>349</v>
       </c>
       <c r="H102" t="s">
-        <v>334</v>
+        <v>350</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -4042,25 +4090,25 @@
         <v>110</v>
       </c>
       <c r="B103" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
       <c r="C103">
-        <v>14000</v>
+        <v>16500</v>
       </c>
       <c r="D103">
         <v>28</v>
       </c>
       <c r="E103" t="s">
-        <v>331</v>
+        <v>347</v>
       </c>
       <c r="F103" t="s">
-        <v>332</v>
+        <v>348</v>
       </c>
       <c r="G103" t="s">
-        <v>333</v>
+        <v>349</v>
       </c>
       <c r="H103" t="s">
-        <v>334</v>
+        <v>350</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -4068,25 +4116,25 @@
         <v>111</v>
       </c>
       <c r="B104" t="s">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="C104">
-        <v>33300</v>
+        <v>16200</v>
       </c>
       <c r="D104">
         <v>28</v>
       </c>
       <c r="E104" t="s">
-        <v>331</v>
+        <v>347</v>
       </c>
       <c r="F104" t="s">
-        <v>332</v>
+        <v>348</v>
       </c>
       <c r="G104" t="s">
-        <v>333</v>
+        <v>349</v>
       </c>
       <c r="H104" t="s">
-        <v>334</v>
+        <v>350</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -4094,25 +4142,25 @@
         <v>112</v>
       </c>
       <c r="B105" t="s">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="C105">
-        <v>21500</v>
+        <v>19700</v>
       </c>
       <c r="D105">
         <v>28</v>
       </c>
       <c r="E105" t="s">
-        <v>331</v>
+        <v>347</v>
       </c>
       <c r="F105" t="s">
-        <v>332</v>
+        <v>348</v>
       </c>
       <c r="G105" t="s">
-        <v>333</v>
+        <v>349</v>
       </c>
       <c r="H105" t="s">
-        <v>334</v>
+        <v>350</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -4120,25 +4168,25 @@
         <v>113</v>
       </c>
       <c r="B106" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="C106">
-        <v>17300</v>
+        <v>24900</v>
       </c>
       <c r="D106">
         <v>28</v>
       </c>
       <c r="E106" t="s">
-        <v>331</v>
+        <v>347</v>
       </c>
       <c r="F106" t="s">
-        <v>332</v>
+        <v>348</v>
       </c>
       <c r="G106" t="s">
-        <v>333</v>
+        <v>349</v>
       </c>
       <c r="H106" t="s">
-        <v>334</v>
+        <v>350</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -4146,25 +4194,25 @@
         <v>114</v>
       </c>
       <c r="B107" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="C107">
-        <v>30000</v>
+        <v>11700</v>
       </c>
       <c r="D107">
         <v>28</v>
       </c>
       <c r="E107" t="s">
-        <v>331</v>
+        <v>347</v>
       </c>
       <c r="F107" t="s">
-        <v>332</v>
+        <v>348</v>
       </c>
       <c r="G107" t="s">
-        <v>333</v>
+        <v>349</v>
       </c>
       <c r="H107" t="s">
-        <v>334</v>
+        <v>350</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -4172,25 +4220,25 @@
         <v>115</v>
       </c>
       <c r="B108" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="C108">
-        <v>31300</v>
+        <v>14100</v>
       </c>
       <c r="D108">
         <v>28</v>
       </c>
       <c r="E108" t="s">
-        <v>331</v>
+        <v>347</v>
       </c>
       <c r="F108" t="s">
-        <v>332</v>
+        <v>348</v>
       </c>
       <c r="G108" t="s">
-        <v>333</v>
+        <v>349</v>
       </c>
       <c r="H108" t="s">
-        <v>334</v>
+        <v>350</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -4198,25 +4246,25 @@
         <v>116</v>
       </c>
       <c r="B109" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="C109">
-        <v>15100</v>
+        <v>33200</v>
       </c>
       <c r="D109">
         <v>28</v>
       </c>
       <c r="E109" t="s">
-        <v>331</v>
+        <v>347</v>
       </c>
       <c r="F109" t="s">
-        <v>332</v>
+        <v>348</v>
       </c>
       <c r="G109" t="s">
-        <v>333</v>
+        <v>349</v>
       </c>
       <c r="H109" t="s">
-        <v>334</v>
+        <v>350</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -4224,25 +4272,25 @@
         <v>117</v>
       </c>
       <c r="B110" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="C110">
-        <v>30700</v>
+        <v>21100</v>
       </c>
       <c r="D110">
         <v>28</v>
       </c>
       <c r="E110" t="s">
-        <v>331</v>
+        <v>347</v>
       </c>
       <c r="F110" t="s">
-        <v>332</v>
+        <v>348</v>
       </c>
       <c r="G110" t="s">
-        <v>333</v>
+        <v>349</v>
       </c>
       <c r="H110" t="s">
-        <v>334</v>
+        <v>350</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -4250,25 +4298,25 @@
         <v>118</v>
       </c>
       <c r="B111" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="C111">
-        <v>14200</v>
+        <v>17300</v>
       </c>
       <c r="D111">
         <v>28</v>
       </c>
       <c r="E111" t="s">
-        <v>331</v>
+        <v>347</v>
       </c>
       <c r="F111" t="s">
-        <v>332</v>
+        <v>348</v>
       </c>
       <c r="G111" t="s">
-        <v>333</v>
+        <v>349</v>
       </c>
       <c r="H111" t="s">
-        <v>334</v>
+        <v>350</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -4276,25 +4324,25 @@
         <v>119</v>
       </c>
       <c r="B112" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="C112">
-        <v>14400</v>
+        <v>31500</v>
       </c>
       <c r="D112">
         <v>28</v>
       </c>
       <c r="E112" t="s">
-        <v>331</v>
+        <v>347</v>
       </c>
       <c r="F112" t="s">
-        <v>332</v>
+        <v>348</v>
       </c>
       <c r="G112" t="s">
-        <v>333</v>
+        <v>349</v>
       </c>
       <c r="H112" t="s">
-        <v>334</v>
+        <v>350</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -4302,25 +4350,25 @@
         <v>120</v>
       </c>
       <c r="B113" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="C113">
-        <v>37200</v>
+        <v>31000</v>
       </c>
       <c r="D113">
         <v>28</v>
       </c>
       <c r="E113" t="s">
-        <v>331</v>
+        <v>347</v>
       </c>
       <c r="F113" t="s">
-        <v>332</v>
+        <v>348</v>
       </c>
       <c r="G113" t="s">
-        <v>333</v>
+        <v>349</v>
       </c>
       <c r="H113" t="s">
-        <v>334</v>
+        <v>350</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -4328,25 +4376,25 @@
         <v>121</v>
       </c>
       <c r="B114" t="s">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="C114">
-        <v>29200</v>
+        <v>15600</v>
       </c>
       <c r="D114">
         <v>28</v>
       </c>
       <c r="E114" t="s">
-        <v>331</v>
+        <v>347</v>
       </c>
       <c r="F114" t="s">
-        <v>332</v>
+        <v>348</v>
       </c>
       <c r="G114" t="s">
-        <v>333</v>
+        <v>349</v>
       </c>
       <c r="H114" t="s">
-        <v>334</v>
+        <v>350</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -4354,25 +4402,25 @@
         <v>122</v>
       </c>
       <c r="B115" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="C115">
-        <v>13600</v>
+        <v>31600</v>
       </c>
       <c r="D115">
         <v>28</v>
       </c>
       <c r="E115" t="s">
-        <v>331</v>
+        <v>347</v>
       </c>
       <c r="F115" t="s">
-        <v>332</v>
+        <v>348</v>
       </c>
       <c r="G115" t="s">
-        <v>333</v>
+        <v>349</v>
       </c>
       <c r="H115" t="s">
-        <v>334</v>
+        <v>350</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -4380,25 +4428,25 @@
         <v>123</v>
       </c>
       <c r="B116" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="C116">
-        <v>26100</v>
+        <v>13500</v>
       </c>
       <c r="D116">
         <v>28</v>
       </c>
       <c r="E116" t="s">
-        <v>331</v>
+        <v>347</v>
       </c>
       <c r="F116" t="s">
-        <v>332</v>
+        <v>348</v>
       </c>
       <c r="G116" t="s">
-        <v>333</v>
+        <v>349</v>
       </c>
       <c r="H116" t="s">
-        <v>334</v>
+        <v>350</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -4406,25 +4454,25 @@
         <v>124</v>
       </c>
       <c r="B117" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="C117">
-        <v>27600</v>
+        <v>13400</v>
       </c>
       <c r="D117">
         <v>28</v>
       </c>
       <c r="E117" t="s">
-        <v>331</v>
+        <v>347</v>
       </c>
       <c r="F117" t="s">
-        <v>332</v>
+        <v>348</v>
       </c>
       <c r="G117" t="s">
-        <v>333</v>
+        <v>349</v>
       </c>
       <c r="H117" t="s">
-        <v>334</v>
+        <v>350</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -4432,25 +4480,25 @@
         <v>125</v>
       </c>
       <c r="B118" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="C118">
-        <v>29200</v>
+        <v>36000</v>
       </c>
       <c r="D118">
         <v>28</v>
       </c>
       <c r="E118" t="s">
-        <v>331</v>
+        <v>347</v>
       </c>
       <c r="F118" t="s">
-        <v>332</v>
+        <v>348</v>
       </c>
       <c r="G118" t="s">
-        <v>333</v>
+        <v>349</v>
       </c>
       <c r="H118" t="s">
-        <v>334</v>
+        <v>350</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -4458,25 +4506,25 @@
         <v>126</v>
       </c>
       <c r="B119" t="s">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="C119">
-        <v>13900</v>
+        <v>33100</v>
       </c>
       <c r="D119">
         <v>28</v>
       </c>
       <c r="E119" t="s">
-        <v>331</v>
+        <v>347</v>
       </c>
       <c r="F119" t="s">
-        <v>332</v>
+        <v>348</v>
       </c>
       <c r="G119" t="s">
-        <v>333</v>
+        <v>349</v>
       </c>
       <c r="H119" t="s">
-        <v>334</v>
+        <v>350</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -4484,25 +4532,25 @@
         <v>127</v>
       </c>
       <c r="B120" t="s">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="C120">
-        <v>35100</v>
+        <v>28100</v>
       </c>
       <c r="D120">
         <v>28</v>
       </c>
       <c r="E120" t="s">
-        <v>331</v>
+        <v>347</v>
       </c>
       <c r="F120" t="s">
-        <v>332</v>
+        <v>348</v>
       </c>
       <c r="G120" t="s">
-        <v>333</v>
+        <v>349</v>
       </c>
       <c r="H120" t="s">
-        <v>334</v>
+        <v>350</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -4510,25 +4558,25 @@
         <v>128</v>
       </c>
       <c r="B121" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="C121">
-        <v>34500</v>
+        <v>25000</v>
       </c>
       <c r="D121">
         <v>28</v>
       </c>
       <c r="E121" t="s">
-        <v>331</v>
+        <v>347</v>
       </c>
       <c r="F121" t="s">
-        <v>332</v>
+        <v>348</v>
       </c>
       <c r="G121" t="s">
-        <v>333</v>
+        <v>349</v>
       </c>
       <c r="H121" t="s">
-        <v>334</v>
+        <v>350</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -4536,25 +4584,25 @@
         <v>129</v>
       </c>
       <c r="B122" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="C122">
-        <v>33400</v>
+        <v>28300</v>
       </c>
       <c r="D122">
         <v>28</v>
       </c>
       <c r="E122" t="s">
-        <v>331</v>
+        <v>347</v>
       </c>
       <c r="F122" t="s">
-        <v>332</v>
+        <v>348</v>
       </c>
       <c r="G122" t="s">
-        <v>333</v>
+        <v>349</v>
       </c>
       <c r="H122" t="s">
-        <v>334</v>
+        <v>350</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -4562,25 +4610,25 @@
         <v>130</v>
       </c>
       <c r="B123" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="C123">
-        <v>13400</v>
+        <v>26900</v>
       </c>
       <c r="D123">
         <v>28</v>
       </c>
       <c r="E123" t="s">
-        <v>331</v>
+        <v>347</v>
       </c>
       <c r="F123" t="s">
-        <v>332</v>
+        <v>348</v>
       </c>
       <c r="G123" t="s">
-        <v>333</v>
+        <v>349</v>
       </c>
       <c r="H123" t="s">
-        <v>334</v>
+        <v>350</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -4588,25 +4636,25 @@
         <v>131</v>
       </c>
       <c r="B124" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="C124">
-        <v>27900</v>
+        <v>29900</v>
       </c>
       <c r="D124">
         <v>28</v>
       </c>
       <c r="E124" t="s">
-        <v>331</v>
+        <v>347</v>
       </c>
       <c r="F124" t="s">
-        <v>332</v>
+        <v>348</v>
       </c>
       <c r="G124" t="s">
-        <v>333</v>
+        <v>349</v>
       </c>
       <c r="H124" t="s">
-        <v>334</v>
+        <v>350</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -4614,25 +4662,25 @@
         <v>132</v>
       </c>
       <c r="B125" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="C125">
-        <v>29400</v>
+        <v>13500</v>
       </c>
       <c r="D125">
         <v>28</v>
       </c>
       <c r="E125" t="s">
-        <v>331</v>
+        <v>347</v>
       </c>
       <c r="F125" t="s">
-        <v>332</v>
+        <v>348</v>
       </c>
       <c r="G125" t="s">
-        <v>333</v>
+        <v>349</v>
       </c>
       <c r="H125" t="s">
-        <v>334</v>
+        <v>350</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -4640,25 +4688,25 @@
         <v>133</v>
       </c>
       <c r="B126" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="C126">
-        <v>15700</v>
+        <v>33300</v>
       </c>
       <c r="D126">
         <v>28</v>
       </c>
       <c r="E126" t="s">
-        <v>331</v>
+        <v>347</v>
       </c>
       <c r="F126" t="s">
-        <v>332</v>
+        <v>348</v>
       </c>
       <c r="G126" t="s">
-        <v>333</v>
+        <v>349</v>
       </c>
       <c r="H126" t="s">
-        <v>334</v>
+        <v>350</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -4666,25 +4714,25 @@
         <v>134</v>
       </c>
       <c r="B127" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="C127">
-        <v>32400</v>
+        <v>13400</v>
       </c>
       <c r="D127">
         <v>28</v>
       </c>
       <c r="E127" t="s">
-        <v>331</v>
+        <v>347</v>
       </c>
       <c r="F127" t="s">
-        <v>332</v>
+        <v>348</v>
       </c>
       <c r="G127" t="s">
-        <v>333</v>
+        <v>349</v>
       </c>
       <c r="H127" t="s">
-        <v>334</v>
+        <v>350</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -4692,25 +4740,25 @@
         <v>135</v>
       </c>
       <c r="B128" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="C128">
-        <v>27600</v>
+        <v>28400</v>
       </c>
       <c r="D128">
         <v>28</v>
       </c>
       <c r="E128" t="s">
-        <v>331</v>
+        <v>347</v>
       </c>
       <c r="F128" t="s">
-        <v>332</v>
+        <v>348</v>
       </c>
       <c r="G128" t="s">
-        <v>333</v>
+        <v>349</v>
       </c>
       <c r="H128" t="s">
-        <v>334</v>
+        <v>350</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -4718,25 +4766,25 @@
         <v>136</v>
       </c>
       <c r="B129" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="C129">
-        <v>10200</v>
+        <v>29200</v>
       </c>
       <c r="D129">
         <v>28</v>
       </c>
       <c r="E129" t="s">
-        <v>331</v>
+        <v>347</v>
       </c>
       <c r="F129" t="s">
-        <v>332</v>
+        <v>348</v>
       </c>
       <c r="G129" t="s">
-        <v>333</v>
+        <v>349</v>
       </c>
       <c r="H129" t="s">
-        <v>334</v>
+        <v>350</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -4744,25 +4792,25 @@
         <v>137</v>
       </c>
       <c r="B130" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="C130">
-        <v>29400</v>
+        <v>15600</v>
       </c>
       <c r="D130">
         <v>28</v>
       </c>
       <c r="E130" t="s">
-        <v>331</v>
+        <v>347</v>
       </c>
       <c r="F130" t="s">
-        <v>332</v>
+        <v>348</v>
       </c>
       <c r="G130" t="s">
-        <v>333</v>
+        <v>349</v>
       </c>
       <c r="H130" t="s">
-        <v>334</v>
+        <v>350</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -4770,25 +4818,25 @@
         <v>138</v>
       </c>
       <c r="B131" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
       <c r="C131">
-        <v>25100</v>
+        <v>33700</v>
       </c>
       <c r="D131">
         <v>28</v>
       </c>
       <c r="E131" t="s">
-        <v>331</v>
+        <v>347</v>
       </c>
       <c r="F131" t="s">
-        <v>332</v>
+        <v>348</v>
       </c>
       <c r="G131" t="s">
-        <v>333</v>
+        <v>349</v>
       </c>
       <c r="H131" t="s">
-        <v>334</v>
+        <v>350</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -4796,25 +4844,25 @@
         <v>139</v>
       </c>
       <c r="B132" t="s">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="C132">
-        <v>22100</v>
+        <v>29100</v>
       </c>
       <c r="D132">
         <v>28</v>
       </c>
       <c r="E132" t="s">
-        <v>331</v>
+        <v>347</v>
       </c>
       <c r="F132" t="s">
-        <v>332</v>
+        <v>348</v>
       </c>
       <c r="G132" t="s">
-        <v>333</v>
+        <v>349</v>
       </c>
       <c r="H132" t="s">
-        <v>334</v>
+        <v>350</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -4822,25 +4870,25 @@
         <v>140</v>
       </c>
       <c r="B133" t="s">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="C133">
-        <v>32000</v>
+        <v>18000</v>
       </c>
       <c r="D133">
         <v>28</v>
       </c>
       <c r="E133" t="s">
-        <v>331</v>
+        <v>347</v>
       </c>
       <c r="F133" t="s">
-        <v>332</v>
+        <v>348</v>
       </c>
       <c r="G133" t="s">
-        <v>333</v>
+        <v>349</v>
       </c>
       <c r="H133" t="s">
-        <v>334</v>
+        <v>350</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -4848,25 +4896,25 @@
         <v>141</v>
       </c>
       <c r="B134" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="C134">
-        <v>22500</v>
+        <v>10600</v>
       </c>
       <c r="D134">
         <v>28</v>
       </c>
       <c r="E134" t="s">
-        <v>331</v>
+        <v>347</v>
       </c>
       <c r="F134" t="s">
-        <v>332</v>
+        <v>348</v>
       </c>
       <c r="G134" t="s">
-        <v>333</v>
+        <v>349</v>
       </c>
       <c r="H134" t="s">
-        <v>334</v>
+        <v>350</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -4874,25 +4922,25 @@
         <v>142</v>
       </c>
       <c r="B135" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="C135">
-        <v>30000</v>
+        <v>30700</v>
       </c>
       <c r="D135">
         <v>28</v>
       </c>
       <c r="E135" t="s">
-        <v>331</v>
+        <v>347</v>
       </c>
       <c r="F135" t="s">
-        <v>332</v>
+        <v>348</v>
       </c>
       <c r="G135" t="s">
-        <v>333</v>
+        <v>349</v>
       </c>
       <c r="H135" t="s">
-        <v>334</v>
+        <v>350</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -4900,25 +4948,25 @@
         <v>143</v>
       </c>
       <c r="B136" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="C136">
-        <v>22900</v>
+        <v>24600</v>
       </c>
       <c r="D136">
         <v>28</v>
       </c>
       <c r="E136" t="s">
-        <v>331</v>
+        <v>347</v>
       </c>
       <c r="F136" t="s">
-        <v>332</v>
+        <v>348</v>
       </c>
       <c r="G136" t="s">
-        <v>333</v>
+        <v>349</v>
       </c>
       <c r="H136" t="s">
-        <v>334</v>
+        <v>350</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -4926,25 +4974,25 @@
         <v>144</v>
       </c>
       <c r="B137" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="C137">
-        <v>38900</v>
+        <v>22000</v>
       </c>
       <c r="D137">
         <v>28</v>
       </c>
       <c r="E137" t="s">
-        <v>331</v>
+        <v>347</v>
       </c>
       <c r="F137" t="s">
-        <v>332</v>
+        <v>348</v>
       </c>
       <c r="G137" t="s">
-        <v>333</v>
+        <v>349</v>
       </c>
       <c r="H137" t="s">
-        <v>334</v>
+        <v>350</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -4952,25 +5000,25 @@
         <v>145</v>
       </c>
       <c r="B138" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="C138">
-        <v>16300</v>
+        <v>26500</v>
       </c>
       <c r="D138">
         <v>28</v>
       </c>
       <c r="E138" t="s">
-        <v>331</v>
+        <v>347</v>
       </c>
       <c r="F138" t="s">
-        <v>332</v>
+        <v>348</v>
       </c>
       <c r="G138" t="s">
-        <v>333</v>
+        <v>349</v>
       </c>
       <c r="H138" t="s">
-        <v>334</v>
+        <v>350</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4978,25 +5026,25 @@
         <v>146</v>
       </c>
       <c r="B139" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="C139">
-        <v>23900</v>
+        <v>23500</v>
       </c>
       <c r="D139">
         <v>28</v>
       </c>
       <c r="E139" t="s">
-        <v>331</v>
+        <v>347</v>
       </c>
       <c r="F139" t="s">
-        <v>332</v>
+        <v>348</v>
       </c>
       <c r="G139" t="s">
-        <v>333</v>
+        <v>349</v>
       </c>
       <c r="H139" t="s">
-        <v>334</v>
+        <v>350</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -5004,25 +5052,25 @@
         <v>147</v>
       </c>
       <c r="B140" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="C140">
-        <v>18100</v>
+        <v>38600</v>
       </c>
       <c r="D140">
         <v>28</v>
       </c>
       <c r="E140" t="s">
-        <v>331</v>
+        <v>347</v>
       </c>
       <c r="F140" t="s">
-        <v>332</v>
+        <v>348</v>
       </c>
       <c r="G140" t="s">
-        <v>333</v>
+        <v>349</v>
       </c>
       <c r="H140" t="s">
-        <v>334</v>
+        <v>350</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -5030,25 +5078,25 @@
         <v>148</v>
       </c>
       <c r="B141" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="C141">
-        <v>21400</v>
+        <v>15100</v>
       </c>
       <c r="D141">
         <v>28</v>
       </c>
       <c r="E141" t="s">
-        <v>331</v>
+        <v>347</v>
       </c>
       <c r="F141" t="s">
-        <v>332</v>
+        <v>348</v>
       </c>
       <c r="G141" t="s">
-        <v>333</v>
+        <v>349</v>
       </c>
       <c r="H141" t="s">
-        <v>334</v>
+        <v>350</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -5056,25 +5104,25 @@
         <v>149</v>
       </c>
       <c r="B142" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="C142">
-        <v>22600</v>
+        <v>20800</v>
       </c>
       <c r="D142">
         <v>28</v>
       </c>
       <c r="E142" t="s">
-        <v>331</v>
+        <v>347</v>
       </c>
       <c r="F142" t="s">
-        <v>332</v>
+        <v>348</v>
       </c>
       <c r="G142" t="s">
-        <v>333</v>
+        <v>349</v>
       </c>
       <c r="H142" t="s">
-        <v>334</v>
+        <v>350</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -5082,25 +5130,25 @@
         <v>150</v>
       </c>
       <c r="B143" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="C143">
-        <v>12800</v>
+        <v>26600</v>
       </c>
       <c r="D143">
         <v>28</v>
       </c>
       <c r="E143" t="s">
-        <v>331</v>
+        <v>347</v>
       </c>
       <c r="F143" t="s">
-        <v>332</v>
+        <v>348</v>
       </c>
       <c r="G143" t="s">
-        <v>333</v>
+        <v>349</v>
       </c>
       <c r="H143" t="s">
-        <v>334</v>
+        <v>350</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -5108,25 +5156,25 @@
         <v>151</v>
       </c>
       <c r="B144" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="C144">
-        <v>11000</v>
+        <v>21000</v>
       </c>
       <c r="D144">
         <v>28</v>
       </c>
       <c r="E144" t="s">
-        <v>331</v>
+        <v>347</v>
       </c>
       <c r="F144" t="s">
-        <v>332</v>
+        <v>348</v>
       </c>
       <c r="G144" t="s">
-        <v>333</v>
+        <v>349</v>
       </c>
       <c r="H144" t="s">
-        <v>334</v>
+        <v>350</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -5134,25 +5182,25 @@
         <v>152</v>
       </c>
       <c r="B145" t="s">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="C145">
-        <v>32200</v>
+        <v>20700</v>
       </c>
       <c r="D145">
         <v>28</v>
       </c>
       <c r="E145" t="s">
-        <v>331</v>
+        <v>347</v>
       </c>
       <c r="F145" t="s">
-        <v>332</v>
+        <v>348</v>
       </c>
       <c r="G145" t="s">
-        <v>333</v>
+        <v>349</v>
       </c>
       <c r="H145" t="s">
-        <v>334</v>
+        <v>350</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -5160,25 +5208,25 @@
         <v>153</v>
       </c>
       <c r="B146" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="C146">
-        <v>27600</v>
+        <v>21600</v>
       </c>
       <c r="D146">
         <v>28</v>
       </c>
       <c r="E146" t="s">
-        <v>331</v>
+        <v>347</v>
       </c>
       <c r="F146" t="s">
-        <v>332</v>
+        <v>348</v>
       </c>
       <c r="G146" t="s">
-        <v>333</v>
+        <v>349</v>
       </c>
       <c r="H146" t="s">
-        <v>334</v>
+        <v>350</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -5186,25 +5234,25 @@
         <v>154</v>
       </c>
       <c r="B147" t="s">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="C147">
-        <v>19200</v>
+        <v>12100</v>
       </c>
       <c r="D147">
         <v>28</v>
       </c>
       <c r="E147" t="s">
-        <v>331</v>
+        <v>347</v>
       </c>
       <c r="F147" t="s">
-        <v>332</v>
+        <v>348</v>
       </c>
       <c r="G147" t="s">
-        <v>333</v>
+        <v>349</v>
       </c>
       <c r="H147" t="s">
-        <v>334</v>
+        <v>350</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -5212,25 +5260,25 @@
         <v>155</v>
       </c>
       <c r="B148" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="C148">
-        <v>13900</v>
+        <v>11600</v>
       </c>
       <c r="D148">
         <v>28</v>
       </c>
       <c r="E148" t="s">
-        <v>331</v>
+        <v>347</v>
       </c>
       <c r="F148" t="s">
-        <v>332</v>
+        <v>348</v>
       </c>
       <c r="G148" t="s">
-        <v>333</v>
+        <v>349</v>
       </c>
       <c r="H148" t="s">
-        <v>334</v>
+        <v>350</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -5238,25 +5286,25 @@
         <v>156</v>
       </c>
       <c r="B149" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="C149">
-        <v>14700</v>
+        <v>31900</v>
       </c>
       <c r="D149">
         <v>28</v>
       </c>
       <c r="E149" t="s">
-        <v>331</v>
+        <v>347</v>
       </c>
       <c r="F149" t="s">
-        <v>332</v>
+        <v>348</v>
       </c>
       <c r="G149" t="s">
-        <v>333</v>
+        <v>349</v>
       </c>
       <c r="H149" t="s">
-        <v>334</v>
+        <v>350</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -5264,25 +5312,25 @@
         <v>157</v>
       </c>
       <c r="B150" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="C150">
-        <v>22400</v>
+        <v>15400</v>
       </c>
       <c r="D150">
         <v>28</v>
       </c>
       <c r="E150" t="s">
-        <v>331</v>
+        <v>347</v>
       </c>
       <c r="F150" t="s">
-        <v>332</v>
+        <v>348</v>
       </c>
       <c r="G150" t="s">
-        <v>333</v>
+        <v>349</v>
       </c>
       <c r="H150" t="s">
-        <v>334</v>
+        <v>350</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -5290,25 +5338,25 @@
         <v>158</v>
       </c>
       <c r="B151" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="C151">
-        <v>16400</v>
+        <v>19500</v>
       </c>
       <c r="D151">
         <v>28</v>
       </c>
       <c r="E151" t="s">
-        <v>331</v>
+        <v>347</v>
       </c>
       <c r="F151" t="s">
-        <v>332</v>
+        <v>348</v>
       </c>
       <c r="G151" t="s">
-        <v>333</v>
+        <v>349</v>
       </c>
       <c r="H151" t="s">
-        <v>334</v>
+        <v>350</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -5316,25 +5364,25 @@
         <v>159</v>
       </c>
       <c r="B152" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="C152">
-        <v>24200</v>
+        <v>34200</v>
       </c>
       <c r="D152">
         <v>28</v>
       </c>
       <c r="E152" t="s">
-        <v>331</v>
+        <v>347</v>
       </c>
       <c r="F152" t="s">
-        <v>332</v>
+        <v>348</v>
       </c>
       <c r="G152" t="s">
-        <v>333</v>
+        <v>349</v>
       </c>
       <c r="H152" t="s">
-        <v>334</v>
+        <v>350</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -5342,25 +5390,25 @@
         <v>160</v>
       </c>
       <c r="B153" t="s">
-        <v>321</v>
+        <v>329</v>
       </c>
       <c r="C153">
-        <v>16600</v>
+        <v>13000</v>
       </c>
       <c r="D153">
         <v>28</v>
       </c>
       <c r="E153" t="s">
-        <v>331</v>
+        <v>347</v>
       </c>
       <c r="F153" t="s">
-        <v>332</v>
+        <v>348</v>
       </c>
       <c r="G153" t="s">
-        <v>333</v>
+        <v>349</v>
       </c>
       <c r="H153" t="s">
-        <v>334</v>
+        <v>350</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -5368,25 +5416,25 @@
         <v>161</v>
       </c>
       <c r="B154" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="C154">
-        <v>30400</v>
+        <v>14500</v>
       </c>
       <c r="D154">
         <v>28</v>
       </c>
       <c r="E154" t="s">
-        <v>331</v>
+        <v>347</v>
       </c>
       <c r="F154" t="s">
-        <v>332</v>
+        <v>348</v>
       </c>
       <c r="G154" t="s">
-        <v>333</v>
+        <v>349</v>
       </c>
       <c r="H154" t="s">
-        <v>334</v>
+        <v>350</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -5394,7 +5442,7 @@
         <v>162</v>
       </c>
       <c r="B155" t="s">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="C155">
         <v>22600</v>
@@ -5403,16 +5451,16 @@
         <v>28</v>
       </c>
       <c r="E155" t="s">
-        <v>331</v>
+        <v>347</v>
       </c>
       <c r="F155" t="s">
-        <v>332</v>
+        <v>348</v>
       </c>
       <c r="G155" t="s">
-        <v>333</v>
+        <v>349</v>
       </c>
       <c r="H155" t="s">
-        <v>334</v>
+        <v>350</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -5420,25 +5468,25 @@
         <v>163</v>
       </c>
       <c r="B156" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="C156">
-        <v>15300</v>
+        <v>20000</v>
       </c>
       <c r="D156">
         <v>28</v>
       </c>
       <c r="E156" t="s">
-        <v>331</v>
+        <v>347</v>
       </c>
       <c r="F156" t="s">
-        <v>332</v>
+        <v>348</v>
       </c>
       <c r="G156" t="s">
-        <v>333</v>
+        <v>349</v>
       </c>
       <c r="H156" t="s">
-        <v>334</v>
+        <v>350</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -5446,25 +5494,25 @@
         <v>164</v>
       </c>
       <c r="B157" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="C157">
-        <v>15200</v>
+        <v>16600</v>
       </c>
       <c r="D157">
         <v>28</v>
       </c>
       <c r="E157" t="s">
-        <v>331</v>
+        <v>347</v>
       </c>
       <c r="F157" t="s">
-        <v>332</v>
+        <v>348</v>
       </c>
       <c r="G157" t="s">
-        <v>333</v>
+        <v>349</v>
       </c>
       <c r="H157" t="s">
-        <v>334</v>
+        <v>350</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -5472,25 +5520,25 @@
         <v>165</v>
       </c>
       <c r="B158" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="C158">
-        <v>18400</v>
+        <v>28500</v>
       </c>
       <c r="D158">
         <v>28</v>
       </c>
       <c r="E158" t="s">
-        <v>331</v>
+        <v>347</v>
       </c>
       <c r="F158" t="s">
-        <v>332</v>
+        <v>348</v>
       </c>
       <c r="G158" t="s">
-        <v>333</v>
+        <v>349</v>
       </c>
       <c r="H158" t="s">
-        <v>334</v>
+        <v>350</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -5498,25 +5546,25 @@
         <v>166</v>
       </c>
       <c r="B159" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="C159">
-        <v>16300</v>
+        <v>13900</v>
       </c>
       <c r="D159">
         <v>28</v>
       </c>
       <c r="E159" t="s">
-        <v>331</v>
+        <v>347</v>
       </c>
       <c r="F159" t="s">
-        <v>332</v>
+        <v>348</v>
       </c>
       <c r="G159" t="s">
-        <v>333</v>
+        <v>349</v>
       </c>
       <c r="H159" t="s">
-        <v>334</v>
+        <v>350</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -5524,25 +5572,25 @@
         <v>167</v>
       </c>
       <c r="B160" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="C160">
-        <v>15900</v>
+        <v>22800</v>
       </c>
       <c r="D160">
         <v>28</v>
       </c>
       <c r="E160" t="s">
-        <v>331</v>
+        <v>347</v>
       </c>
       <c r="F160" t="s">
-        <v>332</v>
+        <v>348</v>
       </c>
       <c r="G160" t="s">
-        <v>333</v>
+        <v>349</v>
       </c>
       <c r="H160" t="s">
-        <v>334</v>
+        <v>350</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -5550,25 +5598,25 @@
         <v>168</v>
       </c>
       <c r="B161" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="C161">
-        <v>19000</v>
+        <v>16400</v>
       </c>
       <c r="D161">
         <v>28</v>
       </c>
       <c r="E161" t="s">
-        <v>331</v>
+        <v>347</v>
       </c>
       <c r="F161" t="s">
-        <v>332</v>
+        <v>348</v>
       </c>
       <c r="G161" t="s">
-        <v>333</v>
+        <v>349</v>
       </c>
       <c r="H161" t="s">
-        <v>334</v>
+        <v>350</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -5576,25 +5624,233 @@
         <v>169</v>
       </c>
       <c r="B162" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="C162">
-        <v>28100</v>
+        <v>14400</v>
       </c>
       <c r="D162">
         <v>28</v>
       </c>
       <c r="E162" t="s">
-        <v>331</v>
+        <v>347</v>
       </c>
       <c r="F162" t="s">
-        <v>332</v>
+        <v>348</v>
       </c>
       <c r="G162" t="s">
-        <v>333</v>
+        <v>349</v>
       </c>
       <c r="H162" t="s">
-        <v>334</v>
+        <v>350</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8">
+      <c r="A163" t="s">
+        <v>170</v>
+      </c>
+      <c r="B163" t="s">
+        <v>339</v>
+      </c>
+      <c r="C163">
+        <v>39700</v>
+      </c>
+      <c r="D163">
+        <v>28</v>
+      </c>
+      <c r="E163" t="s">
+        <v>347</v>
+      </c>
+      <c r="F163" t="s">
+        <v>348</v>
+      </c>
+      <c r="G163" t="s">
+        <v>349</v>
+      </c>
+      <c r="H163" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8">
+      <c r="A164" t="s">
+        <v>171</v>
+      </c>
+      <c r="B164" t="s">
+        <v>340</v>
+      </c>
+      <c r="C164">
+        <v>15000</v>
+      </c>
+      <c r="D164">
+        <v>28</v>
+      </c>
+      <c r="E164" t="s">
+        <v>347</v>
+      </c>
+      <c r="F164" t="s">
+        <v>348</v>
+      </c>
+      <c r="G164" t="s">
+        <v>349</v>
+      </c>
+      <c r="H164" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8">
+      <c r="A165" t="s">
+        <v>172</v>
+      </c>
+      <c r="B165" t="s">
+        <v>341</v>
+      </c>
+      <c r="C165">
+        <v>18200</v>
+      </c>
+      <c r="D165">
+        <v>28</v>
+      </c>
+      <c r="E165" t="s">
+        <v>347</v>
+      </c>
+      <c r="F165" t="s">
+        <v>348</v>
+      </c>
+      <c r="G165" t="s">
+        <v>349</v>
+      </c>
+      <c r="H165" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8">
+      <c r="A166" t="s">
+        <v>173</v>
+      </c>
+      <c r="B166" t="s">
+        <v>342</v>
+      </c>
+      <c r="C166">
+        <v>16700</v>
+      </c>
+      <c r="D166">
+        <v>28</v>
+      </c>
+      <c r="E166" t="s">
+        <v>347</v>
+      </c>
+      <c r="F166" t="s">
+        <v>348</v>
+      </c>
+      <c r="G166" t="s">
+        <v>349</v>
+      </c>
+      <c r="H166" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8">
+      <c r="A167" t="s">
+        <v>174</v>
+      </c>
+      <c r="B167" t="s">
+        <v>343</v>
+      </c>
+      <c r="C167">
+        <v>12000</v>
+      </c>
+      <c r="D167">
+        <v>28</v>
+      </c>
+      <c r="E167" t="s">
+        <v>347</v>
+      </c>
+      <c r="F167" t="s">
+        <v>348</v>
+      </c>
+      <c r="G167" t="s">
+        <v>349</v>
+      </c>
+      <c r="H167" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8">
+      <c r="A168" t="s">
+        <v>175</v>
+      </c>
+      <c r="B168" t="s">
+        <v>344</v>
+      </c>
+      <c r="C168">
+        <v>15900</v>
+      </c>
+      <c r="D168">
+        <v>28</v>
+      </c>
+      <c r="E168" t="s">
+        <v>347</v>
+      </c>
+      <c r="F168" t="s">
+        <v>348</v>
+      </c>
+      <c r="G168" t="s">
+        <v>349</v>
+      </c>
+      <c r="H168" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8">
+      <c r="A169" t="s">
+        <v>176</v>
+      </c>
+      <c r="B169" t="s">
+        <v>345</v>
+      </c>
+      <c r="C169">
+        <v>18900</v>
+      </c>
+      <c r="D169">
+        <v>28</v>
+      </c>
+      <c r="E169" t="s">
+        <v>347</v>
+      </c>
+      <c r="F169" t="s">
+        <v>348</v>
+      </c>
+      <c r="G169" t="s">
+        <v>349</v>
+      </c>
+      <c r="H169" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8">
+      <c r="A170" t="s">
+        <v>177</v>
+      </c>
+      <c r="B170" t="s">
+        <v>346</v>
+      </c>
+      <c r="C170">
+        <v>26800</v>
+      </c>
+      <c r="D170">
+        <v>28</v>
+      </c>
+      <c r="E170" t="s">
+        <v>347</v>
+      </c>
+      <c r="F170" t="s">
+        <v>348</v>
+      </c>
+      <c r="G170" t="s">
+        <v>349</v>
+      </c>
+      <c r="H170" t="s">
+        <v>350</v>
       </c>
     </row>
   </sheetData>
